--- a/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>血洗</t>
+          <t>血稅</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>

--- a/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>

--- a/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D177"/>
+  <dimension ref="A1:B217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,16 +444,6 @@
           <t>대답</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>오답가산점</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>구분</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -466,14 +456,6 @@
           <t>내과</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,14 +468,6 @@
           <t>간호(Nurse)</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -506,14 +480,6 @@
           <t>입원(hospitalization)</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -526,14 +492,6 @@
           <t>보고(Report)</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -546,14 +504,6 @@
           <t>곡절(tortuous)</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -566,14 +516,6 @@
           <t>초유(First)</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -586,14 +528,6 @@
           <t>서막(prelude)</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -606,14 +540,6 @@
           <t>교양(Cure)</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -626,14 +552,6 @@
           <t>이론(theory)</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -646,14 +564,6 @@
           <t>유교(Conf)</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -666,14 +576,6 @@
           <t>학문(knowledge)</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -686,14 +588,6 @@
           <t>수용(Acceptance)</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -706,14 +600,6 @@
           <t>귀중(You)</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -726,14 +612,6 @@
           <t>귀천(Expensive)</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -746,14 +624,6 @@
           <t>유산(heritage)</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -766,14 +636,6 @@
           <t>유언(will)</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -786,14 +648,6 @@
           <t>유실(Lose)</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -806,14 +660,6 @@
           <t>유기(Abandon)</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -826,14 +672,6 @@
           <t>투고(Posting)</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -846,14 +684,6 @@
           <t>투수(pitcher)</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -866,14 +696,6 @@
           <t>투기(Dumping)</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -886,14 +708,6 @@
           <t>포기(abandon)</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -906,14 +720,6 @@
           <t>노선(route)</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -926,14 +732,6 @@
           <t>전선(Front)</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -946,14 +744,6 @@
           <t>시선(Vision)</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -966,14 +756,6 @@
           <t>근절(eradication)</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -986,14 +768,6 @@
           <t>간섭</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1006,14 +780,6 @@
           <t>간여</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1026,14 +792,6 @@
           <t>약간(Slightly)</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1046,14 +804,6 @@
           <t>간만(Full)</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1066,14 +816,6 @@
           <t>간척(Reclamation)</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1086,14 +828,6 @@
           <t>견습(Appraise)</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1106,14 +840,6 @@
           <t>견해(opinion)</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1126,14 +852,6 @@
           <t>견문(knowledge)</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1146,14 +864,6 @@
           <t>알현(audience)</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1166,14 +876,6 @@
           <t>참가(join)</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1186,14 +888,6 @@
           <t>참석</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1206,14 +900,6 @@
           <t>참견(See)</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1226,14 +912,6 @@
           <t>참여(participate)</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1246,14 +924,6 @@
           <t>경위</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1266,14 +936,6 @@
           <t>화목(harmony)</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1286,14 +948,6 @@
           <t>화음(Chord)</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1306,14 +960,6 @@
           <t>화해(reconciliation)</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1326,14 +972,6 @@
           <t>화합(Harmony)</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1346,14 +984,6 @@
           <t>세금(Tax)</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1366,14 +996,6 @@
           <t>혈세</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1386,14 +1008,6 @@
           <t>세무(Tax)</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1406,14 +1020,6 @@
           <t>세력(power)</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1426,14 +1032,6 @@
           <t>권세(Power)</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1446,14 +1044,6 @@
           <t>경제(economy)</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1466,14 +1056,6 @@
           <t>첩경(shortcut)</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1486,14 +1068,6 @@
           <t>경로(Passage)</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1506,14 +1080,6 @@
           <t>직경(diameter)</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1526,14 +1092,6 @@
           <t>한문(Chinese)</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1546,14 +1104,6 @@
           <t>한자</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>-4</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1566,14 +1116,6 @@
           <t>괴한(Blame)</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1586,14 +1128,6 @@
           <t>비탄(grief)</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1606,14 +1140,6 @@
           <t>기반(basis)</t>
         </is>
       </c>
-      <c r="C59" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1626,14 +1152,6 @@
           <t>창제(Creation)</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1646,14 +1164,6 @@
           <t>구현(Embodiment)</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1666,14 +1176,6 @@
           <t>유리(favorable)</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1686,14 +1188,6 @@
           <t>강도(strength)</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1706,14 +1200,6 @@
           <t>통제(control)</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1726,14 +1212,6 @@
           <t>행간</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1746,14 +1224,6 @@
           <t>단서(Ductive)</t>
         </is>
       </c>
-      <c r="C66" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1766,14 +1236,6 @@
           <t>훼손(damage)</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1786,14 +1248,6 @@
           <t>매목</t>
         </is>
       </c>
-      <c r="C68" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1806,14 +1260,6 @@
           <t>상감(Inlaid)</t>
         </is>
       </c>
-      <c r="C69" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1826,14 +1272,6 @@
           <t>보판(Supplement)</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1846,14 +1284,6 @@
           <t>현실(Reality)</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1866,14 +1296,6 @@
           <t>야박(Scorpion)</t>
         </is>
       </c>
-      <c r="C72" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1886,14 +1308,6 @@
           <t>근성(guts)</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1906,14 +1320,6 @@
           <t>채용(use)</t>
         </is>
       </c>
-      <c r="C74" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1926,14 +1332,6 @@
           <t>활력(vitality)</t>
         </is>
       </c>
-      <c r="C75" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1946,14 +1344,6 @@
           <t>활로(Live)</t>
         </is>
       </c>
-      <c r="C76" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1966,14 +1356,6 @@
           <t>부활(Resurrection)</t>
         </is>
       </c>
-      <c r="C77" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1986,14 +1368,6 @@
           <t>대화(dialogue)</t>
         </is>
       </c>
-      <c r="C78" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2006,14 +1380,6 @@
           <t>동화</t>
         </is>
       </c>
-      <c r="C79" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2026,14 +1392,6 @@
           <t>실화(truth)</t>
         </is>
       </c>
-      <c r="C80" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2046,14 +1404,6 @@
           <t>공감(sympathy)</t>
         </is>
       </c>
-      <c r="C81" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2066,14 +1416,6 @@
           <t>공공(public)</t>
         </is>
       </c>
-      <c r="C82" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2086,14 +1428,6 @@
           <t>공동(common)</t>
         </is>
       </c>
-      <c r="C83" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2106,14 +1440,6 @@
           <t>선거(election)</t>
         </is>
       </c>
-      <c r="C84" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2126,14 +1452,6 @@
           <t>선수(player)</t>
         </is>
       </c>
-      <c r="C85" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2146,14 +1464,6 @@
           <t>선택(choose)</t>
         </is>
       </c>
-      <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2166,14 +1476,6 @@
           <t>언약(Appointment)</t>
         </is>
       </c>
-      <c r="C87" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2186,14 +1488,6 @@
           <t>언론(Remark)</t>
         </is>
       </c>
-      <c r="C88" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2206,14 +1500,6 @@
           <t>격언(motto)</t>
         </is>
       </c>
-      <c r="C89" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2226,14 +1512,6 @@
           <t>화두(Words)</t>
         </is>
       </c>
-      <c r="C90" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2246,14 +1524,6 @@
           <t>통화(Calling)</t>
         </is>
       </c>
-      <c r="C91" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2266,14 +1536,6 @@
           <t>화제(topic)</t>
         </is>
       </c>
-      <c r="C92" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2286,14 +1548,6 @@
           <t>통화(currency)</t>
         </is>
       </c>
-      <c r="C93" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2306,14 +1560,6 @@
           <t>재화(Money)</t>
         </is>
       </c>
-      <c r="C94" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2326,14 +1572,6 @@
           <t>화폐(currency)</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2346,14 +1584,6 @@
           <t>화물(goods)</t>
         </is>
       </c>
-      <c r="C96" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2366,14 +1596,6 @@
           <t>정의(justice)</t>
         </is>
       </c>
-      <c r="C97" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2386,14 +1608,6 @@
           <t>정직(honest)</t>
         </is>
       </c>
-      <c r="C98" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2406,14 +1620,6 @@
           <t>정치(politics)</t>
         </is>
       </c>
-      <c r="C99" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2426,14 +1632,6 @@
           <t>정부(government)</t>
         </is>
       </c>
-      <c r="C100" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2446,14 +1644,6 @@
           <t>정파</t>
         </is>
       </c>
-      <c r="C101" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2466,14 +1656,6 @@
           <t>선정</t>
         </is>
       </c>
-      <c r="C102" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2486,14 +1668,6 @@
           <t>단정(Determine)</t>
         </is>
       </c>
-      <c r="C103" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2506,14 +1680,6 @@
           <t>안정(Stability)</t>
         </is>
       </c>
-      <c r="C104" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2526,14 +1692,6 @@
           <t>규정(Regulation)</t>
         </is>
       </c>
-      <c r="C105" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2546,14 +1704,6 @@
           <t>구조(structure)</t>
         </is>
       </c>
-      <c r="C106" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2566,14 +1716,6 @@
           <t>충분(full)</t>
         </is>
       </c>
-      <c r="C107" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2586,14 +1728,6 @@
           <t>현상(Phenomenon)</t>
         </is>
       </c>
-      <c r="C108" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2606,14 +1740,6 @@
           <t>조작(Construction)</t>
         </is>
       </c>
-      <c r="C109" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2626,14 +1752,6 @@
           <t>발각(find)</t>
         </is>
       </c>
-      <c r="C110" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2646,14 +1764,6 @@
           <t>남용(Abuse)</t>
         </is>
       </c>
-      <c r="C111" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2666,14 +1776,6 @@
           <t>사건(event)</t>
         </is>
       </c>
-      <c r="C112" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2686,14 +1788,6 @@
           <t>유감(Pity)</t>
         </is>
       </c>
-      <c r="C113" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2706,14 +1800,6 @@
           <t>길조</t>
         </is>
       </c>
-      <c r="C114" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2726,14 +1812,6 @@
           <t>흉조(Fierce)</t>
         </is>
       </c>
-      <c r="C115" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2746,14 +1824,6 @@
           <t>망조(Omen)</t>
         </is>
       </c>
-      <c r="C116" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2766,14 +1836,6 @@
           <t>도발</t>
         </is>
       </c>
-      <c r="C117" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2786,14 +1848,6 @@
           <t>도전(challenge)</t>
         </is>
       </c>
-      <c r="C118" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2806,14 +1860,6 @@
           <t>도망(escape)</t>
         </is>
       </c>
-      <c r="C119" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2826,14 +1872,6 @@
           <t>도주(escape)</t>
         </is>
       </c>
-      <c r="C120" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2846,14 +1884,6 @@
           <t>도피(escape)</t>
         </is>
       </c>
-      <c r="C121" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2866,14 +1896,6 @@
           <t>회피(Avoidance)</t>
         </is>
       </c>
-      <c r="C122" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2886,14 +1908,6 @@
           <t>지지(support)</t>
         </is>
       </c>
-      <c r="C123" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2906,14 +1920,6 @@
           <t>지배(Rule)</t>
         </is>
       </c>
-      <c r="C124" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2926,14 +1932,6 @@
           <t>지급(Supply)</t>
         </is>
       </c>
-      <c r="C125" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2946,14 +1944,6 @@
           <t>급여(Give)</t>
         </is>
       </c>
-      <c r="C126" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2966,14 +1956,6 @@
           <t>침묵(silence)</t>
         </is>
       </c>
-      <c r="C127" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2986,14 +1968,6 @@
           <t>묵인(default)</t>
         </is>
       </c>
-      <c r="C128" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3006,14 +1980,6 @@
           <t>묵살(Kill)</t>
         </is>
       </c>
-      <c r="C129" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3026,14 +1992,6 @@
           <t>묵념(Silent)</t>
         </is>
       </c>
-      <c r="C130" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3046,14 +2004,6 @@
           <t>동맹(alliance)</t>
         </is>
       </c>
-      <c r="C131" t="n">
-        <v>-4</v>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3066,14 +2016,6 @@
           <t>맹세(Oath)</t>
         </is>
       </c>
-      <c r="C132" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3086,14 +2028,6 @@
           <t>맹방(Allies)</t>
         </is>
       </c>
-      <c r="C133" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3106,14 +2040,6 @@
           <t>서약(Vow)</t>
         </is>
       </c>
-      <c r="C134" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3126,14 +2052,6 @@
           <t>서언(oath)</t>
         </is>
       </c>
-      <c r="C135" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3146,14 +2064,6 @@
           <t>방자</t>
         </is>
       </c>
-      <c r="C136" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3166,14 +2076,6 @@
           <t>자세(carefulness)</t>
         </is>
       </c>
-      <c r="C137" t="n">
-        <v>-4</v>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3186,14 +2088,6 @@
           <t>자태(attitude)</t>
         </is>
       </c>
-      <c r="C138" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3206,14 +2100,6 @@
           <t>간발(Interim)</t>
         </is>
       </c>
-      <c r="C139" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3226,14 +2112,6 @@
           <t>비견(Shoulder)</t>
         </is>
       </c>
-      <c r="C140" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3246,14 +2124,6 @@
           <t>침체(Depression)</t>
         </is>
       </c>
-      <c r="C141" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3266,14 +2136,6 @@
           <t>위축(Atrophy)</t>
         </is>
       </c>
-      <c r="C142" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3286,14 +2148,6 @@
           <t>차치(Put)</t>
         </is>
       </c>
-      <c r="C143" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3306,14 +2160,6 @@
           <t>방역</t>
         </is>
       </c>
-      <c r="C144" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3326,14 +2172,6 @@
           <t>정부</t>
         </is>
       </c>
-      <c r="C145" t="n">
-        <v>-4</v>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3346,14 +2184,6 @@
           <t>규칙(rule)</t>
         </is>
       </c>
-      <c r="C146" t="n">
-        <v>-4</v>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3366,14 +2196,6 @@
           <t>일정(must)</t>
         </is>
       </c>
-      <c r="C147" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3386,14 +2208,6 @@
           <t>출급</t>
         </is>
       </c>
-      <c r="C148" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3406,14 +2220,6 @@
           <t>행위(Pursuit)</t>
         </is>
       </c>
-      <c r="C149" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3426,14 +2232,6 @@
           <t>약속(promise)</t>
         </is>
       </c>
-      <c r="C150" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3446,14 +2244,6 @@
           <t>맹약(Appointment)</t>
         </is>
       </c>
-      <c r="C151" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3466,14 +2256,6 @@
           <t>구조(Rescue)</t>
         </is>
       </c>
-      <c r="C152" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3486,14 +2268,6 @@
           <t>일관(Consistency)</t>
         </is>
       </c>
-      <c r="C153" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3506,14 +2280,6 @@
           <t>자손(Descendants)</t>
         </is>
       </c>
-      <c r="C154" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3526,14 +2292,6 @@
           <t>광고(advertise)</t>
         </is>
       </c>
-      <c r="C155" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3546,14 +2304,6 @@
           <t>만대(Bandai)</t>
         </is>
       </c>
-      <c r="C156" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3566,14 +2316,6 @@
           <t>인류(Humanity)</t>
         </is>
       </c>
-      <c r="C157" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3586,14 +2328,6 @@
           <t>평등(equality)</t>
         </is>
       </c>
-      <c r="C158" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3606,14 +2340,6 @@
           <t>민족(nationality)</t>
         </is>
       </c>
-      <c r="C159" t="n">
-        <v>-4</v>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3626,14 +2352,6 @@
           <t>대의(Righteousness)</t>
         </is>
       </c>
-      <c r="C160" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3646,14 +2364,6 @@
           <t>자존</t>
         </is>
       </c>
-      <c r="C161" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3666,14 +2376,6 @@
           <t>자존</t>
         </is>
       </c>
-      <c r="C162" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3686,14 +2388,6 @@
           <t>극명(Pronunciation)</t>
         </is>
       </c>
-      <c r="C163" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3706,14 +2400,6 @@
           <t>정권</t>
         </is>
       </c>
-      <c r="C164" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3726,14 +2412,6 @@
           <t>정권(regime)</t>
         </is>
       </c>
-      <c r="C165" t="n">
-        <v>-4</v>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3746,14 +2424,6 @@
           <t>영유(Forever)</t>
         </is>
       </c>
-      <c r="C166" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3766,14 +2436,6 @@
           <t>득실</t>
         </is>
       </c>
-      <c r="C167" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3786,14 +2448,6 @@
           <t>거부(rejection)</t>
         </is>
       </c>
-      <c r="C168" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3806,14 +2460,6 @@
           <t>거절(rejection)</t>
         </is>
       </c>
-      <c r="C169" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -3826,14 +2472,6 @@
           <t>교정(correct)</t>
         </is>
       </c>
-      <c r="C170" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -3846,14 +2484,6 @@
           <t>교정(revision)</t>
         </is>
       </c>
-      <c r="C171" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3866,14 +2496,6 @@
           <t>시각(Perspective)</t>
         </is>
       </c>
-      <c r="C172" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -3886,14 +2508,6 @@
           <t>각축(Compete)</t>
         </is>
       </c>
-      <c r="C173" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3906,14 +2520,6 @@
           <t>살생(Kill)</t>
         </is>
       </c>
-      <c r="C174" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3926,14 +2532,6 @@
           <t>상쇄(Offset)</t>
         </is>
       </c>
-      <c r="C175" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3946,14 +2544,6 @@
           <t>쇄도(Flood)</t>
         </is>
       </c>
-      <c r="C176" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>기본</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3966,12 +2556,484 @@
           <t>살균(Sterilize)</t>
         </is>
       </c>
-      <c r="C177" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>기본</t>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>凝視</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>응시(gaze)</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>鷹視</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>응시(Hawking)</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>濾過</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>여과(filtration)</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>勵果</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>여과(Deciduous)</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>矛盾</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>모순(contradiction)</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>現象</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>현상(Phenomenon)</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>本質</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>본질(Nature)</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>葛藤</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>갈등(conflict)</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>假想</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>가상(imaginary)</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>根本</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>근본(fundamental)</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>機會</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>기회(Chance)</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>役割</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>역할(role)</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>懷疑</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>회의(Suspect)</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>會議</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>회의(Meeting)</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>共有</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>공유(Share)</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>公有</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>공유(Public)</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>區分</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>구분(distinguish)</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>分類</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>분류(Classification)</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>辨明</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>변명(Discern)</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>決裁</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>결재(Decision)</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>再考</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>재고(Reconsideration)</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>運命</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>운명(destiny)</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>誠實</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>성실(honest)</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>殞命</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>운명(die)</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>成實</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>성실(Achievement)</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>選出</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>선출(Select)</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>先出</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>선출(First-out)</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>규율(law)</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>老衰</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>노쇠(Aging)</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>推戴</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>추대(Push)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>浮上</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>부상(Emerging)</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>負傷</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>부상(Injury)</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>所願</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>소원(Wish)</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>訴願</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>소원</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>常識</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>상식</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>公理</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>공리(axiom)</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>周旋</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>주선</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>收斂</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>수렴(convergence)</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>未達</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>미달(Unachieved)</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>思惟</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>사유(Only)</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B217"/>
+  <dimension ref="A1:B287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3037,6 +3037,846 @@
         </is>
       </c>
     </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>孤獨</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>고독(Lonely)</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>掌握</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>장악(master)</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>管掌</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>관장(Control)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>難解</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>난해(Difficulty)</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>悲鳴</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>비명(scream)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>苦悶</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>고민(depressed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>苦痛</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>고통(pain)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>肉體</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>육체(flesh)</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>對策</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>대책(Countermeasure)</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>索出</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>색출</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>檢索</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>검색(Retrieval)</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>索引</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>색인(index)</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>引上</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>인상</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>索莫</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>삭막(Somo)</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>수색(search)</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>拓本</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>탁본(Extension)</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>拒否</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>거부(rejection)</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>與否</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>여부</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>否認</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>부인(deny)</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>否決</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>부결(veto)</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>否定</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>부정(denial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>否塞</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>비색(Not)</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>語塞</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>어색(Condolence)</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>否運</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>비운</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>不滿</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>불만(dissatisfied)</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>不足</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>부족(insufficient)</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>不安</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>불안(anxiety)</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>否定</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>부정(denial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>肯定</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>긍정(affim)</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>不正</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>부정(Fraud)</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>不定</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>부정(indefinite)</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>不淨</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>부정(Unclean)</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>不貞</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>부정(Unfaithful)</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>開拓</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>개척</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>拓本</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>탁본(Extension)</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>變更</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>변경(change)</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>更任</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>경임</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>更生</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>갱생(rehabilitation)</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>갱신, 경신(renew)</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>搨本</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>탑본(Extension)</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>遊說</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>유세(Lobby)</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>誘說</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>유세(Seduce)</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>租稅</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>조세(Tax)</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>龜裂</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>균열(Cracked)</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>嗚咽</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>오열(whimper)</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>會務</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>회무</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>會則</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>회칙(Meeting)</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>會合</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>회합(meet)</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>會同</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>회동</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>社會</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>사회(society)</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>國會</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>국회(Parliament)</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>機會</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>기회(Chance)</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>會談</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>회담(talks)</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>契機</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>계기(Opportunity)</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>機關</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>기관(organ)</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>危機</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>위기(crisis)</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>役割</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>역할(role)</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>用役</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>용역(Service)</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>現役</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>현역</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>懲役</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>징역(Prison)</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>義務</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>의무(obligation)</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>講義</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>강의(lecture)</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>議員</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>의원(Parliament)</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>論議</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>논의(Discussion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>協議</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>협의(protocol)</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>討議</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>토의(discussion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>抗議</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>항의(protest)</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>懷柔</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>회유(Tenderness)</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>懷疑</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>회의(Suspect)</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>懷抱</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>회포(embrace)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>내과</t>
+          <t>내과(Internal medicine)</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>간호(Nurse)</t>
+          <t>간호</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>입원(hospitalization)</t>
+          <t>입원</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>보고(Report)</t>
+          <t>보고</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>곡절(tortuous)</t>
+          <t>곡절</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>초유(First)</t>
+          <t>초유</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>서막(prelude)</t>
+          <t>서막</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>교양(Cure)</t>
+          <t>교양</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>이론(theory)</t>
+          <t>이론</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>유교(Conf)</t>
+          <t>유교</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>학문(knowledge)</t>
+          <t>학문</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>수용(Acceptance)</t>
+          <t>수용</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>귀중(You)</t>
+          <t>귀중</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>귀천(Expensive)</t>
+          <t>귀천</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>유산(heritage)</t>
+          <t>유산</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>유언(will)</t>
+          <t>유언</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>유실(Lose)</t>
+          <t>유실</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>유기(Abandon)</t>
+          <t>유기</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>투고(Posting)</t>
+          <t>투고</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>투수(pitcher)</t>
+          <t>투수</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>투기(Dumping)</t>
+          <t>투기</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>포기(abandon)</t>
+          <t>포기</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>노선(route)</t>
+          <t>노선</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>전선(Front)</t>
+          <t>전선</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>시선(Vision)</t>
+          <t>시선</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>근절(eradication)</t>
+          <t>근절</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>간섭</t>
+          <t>간섭(put one's oar in)</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>간여</t>
+          <t>간여(Dry and)</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>약간(Slightly)</t>
+          <t>약간</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>간만(Full)</t>
+          <t>간만</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>간척(Reclamation)</t>
+          <t>간척</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>견습(Appraise)</t>
+          <t>견습</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>견해(opinion)</t>
+          <t>견해</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>견문(knowledge)</t>
+          <t>견문</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>알현(audience)</t>
+          <t>알현</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>참가(join)</t>
+          <t>참가</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>참석</t>
+          <t>참석(Attend the seat)</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>참견(See)</t>
+          <t>참견</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>참여(participate)</t>
+          <t>참여</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>경위</t>
+          <t>경위(Latitude and latitude)</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>화목(harmony)</t>
+          <t>화목</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>화음(Chord)</t>
+          <t>화음</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>화해(reconciliation)</t>
+          <t>화해</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>화합(Harmony)</t>
+          <t>화합</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>세금(Tax)</t>
+          <t>세금</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>혈세</t>
+          <t>혈세(Blood tax)</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>세무(Tax)</t>
+          <t>세무</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>세력(power)</t>
+          <t>세력</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>권세(Power)</t>
+          <t>권세</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>경제(economy)</t>
+          <t>경제</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>첩경(shortcut)</t>
+          <t>첩경</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>경로(Passage)</t>
+          <t>경로</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>직경(diameter)</t>
+          <t>직경</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>한문(Chinese)</t>
+          <t>한문</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>한자</t>
+          <t>한자(Chinese character)</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>괴한(Blame)</t>
+          <t>괴한</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>비탄(grief)</t>
+          <t>비탄</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>기반(basis)</t>
+          <t>기반</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>창제(Creation)</t>
+          <t>창제</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>구현(Embodiment)</t>
+          <t>구현</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>유리(favorable)</t>
+          <t>유리</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>강도(strength)</t>
+          <t>강도</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>통제(control)</t>
+          <t>통제</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>행간</t>
+          <t>행간(Line between lines)</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>단서(Ductive)</t>
+          <t>단서</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>훼손(damage)</t>
+          <t>훼손</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>매목</t>
+          <t>매목(Buried tree)</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>상감(Inlaid)</t>
+          <t>상감</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>보판(Supplement)</t>
+          <t>보판</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>현실(Reality)</t>
+          <t>현실</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>야박(Scorpion)</t>
+          <t>야박</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>근성(guts)</t>
+          <t>근성</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>채용(use)</t>
+          <t>채용</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>활력(vitality)</t>
+          <t>활력</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>활로(Live)</t>
+          <t>활로</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>부활(Resurrection)</t>
+          <t>부활</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>대화(dialogue)</t>
+          <t>대화</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>동화</t>
+          <t>동화(fairy tale)</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>실화(truth)</t>
+          <t>실화</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>공감(sympathy)</t>
+          <t>공감</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>공공(public)</t>
+          <t>공공</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>공동(common)</t>
+          <t>공동</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>선거(election)</t>
+          <t>선거</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>선수(player)</t>
+          <t>선수</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>선택(choose)</t>
+          <t>선택</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>언약(Appointment)</t>
+          <t>언약</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>언론(Remark)</t>
+          <t>언론</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>격언(motto)</t>
+          <t>격언</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>화두(Words)</t>
+          <t>화두</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>통화(Calling)</t>
+          <t>통화</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>화제(topic)</t>
+          <t>화제</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>통화(currency)</t>
+          <t>통화</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>재화(Money)</t>
+          <t>재화</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>화폐(currency)</t>
+          <t>화폐</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>화물(goods)</t>
+          <t>화물</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>정의(justice)</t>
+          <t>정의</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>정직(honest)</t>
+          <t>정직</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>정치(politics)</t>
+          <t>정치</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>정부(government)</t>
+          <t>정부</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>정파</t>
+          <t>정파(Political faction)</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>선정</t>
+          <t>선정(Good politics)</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>단정(Determine)</t>
+          <t>단정</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>안정(Stability)</t>
+          <t>안정</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>규정(Regulation)</t>
+          <t>규정</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>구조(structure)</t>
+          <t>구조</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>충분(full)</t>
+          <t>충분</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>현상(Phenomenon)</t>
+          <t>현상</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>조작(Construction)</t>
+          <t>조작</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>발각(find)</t>
+          <t>발각</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>남용(Abuse)</t>
+          <t>남용</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>사건(event)</t>
+          <t>사건</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>유감(Pity)</t>
+          <t>유감</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>길조</t>
+          <t>길조(good omen)</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>흉조(Fierce)</t>
+          <t>흉조</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>망조(Omen)</t>
+          <t>망조</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>도발</t>
+          <t>도발(Pick up)</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>도전(challenge)</t>
+          <t>도전</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>도망(escape)</t>
+          <t>도망</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>도주(escape)</t>
+          <t>도주</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>도피(escape)</t>
+          <t>도피</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>회피(Avoidance)</t>
+          <t>회피</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>지지(support)</t>
+          <t>지지</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>지배(Rule)</t>
+          <t>지배</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>지급(Supply)</t>
+          <t>지급</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>급여(Give)</t>
+          <t>급여</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>침묵(silence)</t>
+          <t>침묵</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>묵인(default)</t>
+          <t>묵인</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>묵살(Kill)</t>
+          <t>묵살</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>묵념(Silent)</t>
+          <t>묵념</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>동맹(alliance)</t>
+          <t>동맹</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>맹세(Oath)</t>
+          <t>맹세</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>맹방(Allies)</t>
+          <t>맹방</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>서약(Vow)</t>
+          <t>서약</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>서언(oath)</t>
+          <t>서언</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>방자</t>
+          <t>방자(Let go)</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>자세(carefulness)</t>
+          <t>자세</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>자태(attitude)</t>
+          <t>자태</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>간발(Interim)</t>
+          <t>간발</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>비견(Shoulder)</t>
+          <t>비견</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>침체(Depression)</t>
+          <t>침체</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>위축(Atrophy)</t>
+          <t>위축</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>차치(Put)</t>
+          <t>차치</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>방역</t>
+          <t>방역(epidemic prevention)</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>정부</t>
+          <t>정부(Right and wrong)</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>규칙(rule)</t>
+          <t>규칙</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>일정(must)</t>
+          <t>일정</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>출급</t>
+          <t>출급(Give out)</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>행위(Pursuit)</t>
+          <t>행위</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>약속(promise)</t>
+          <t>약속</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>맹약(Appointment)</t>
+          <t>맹약</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>구조(Rescue)</t>
+          <t>구조</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>일관(Consistency)</t>
+          <t>일관</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>자손(Descendants)</t>
+          <t>자손</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>광고(advertise)</t>
+          <t>광고</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>만대(Bandai)</t>
+          <t>만대</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>인류(Humanity)</t>
+          <t>인류</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>평등(equality)</t>
+          <t>평등</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>민족(nationality)</t>
+          <t>민족</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>대의(Righteousness)</t>
+          <t>대의</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>자존</t>
+          <t>자존(Self -existence)</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>자존</t>
+          <t>자존(Self -esteem)</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>극명(Pronunciation)</t>
+          <t>극명</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>정권</t>
+          <t>정권(Right to right)</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>정권(regime)</t>
+          <t>정권</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>영유(Forever)</t>
+          <t>영유</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>득실</t>
+          <t>득실(Gain and loss)</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>거부(rejection)</t>
+          <t>거부</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>거절(rejection)</t>
+          <t>거절</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>교정(correct)</t>
+          <t>교정</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>교정(revision)</t>
+          <t>교정</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>시각(Perspective)</t>
+          <t>시각</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>각축(Compete)</t>
+          <t>각축</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>살생(Kill)</t>
+          <t>살생</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>상쇄(Offset)</t>
+          <t>상쇄</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>쇄도(Flood)</t>
+          <t>쇄도</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>살균(Sterilize)</t>
+          <t>살균</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>응시(gaze)</t>
+          <t>응시</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>응시(Hawking)</t>
+          <t>응시</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>여과(filtration)</t>
+          <t>여과</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>여과(Deciduous)</t>
+          <t>여과</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>모순(contradiction)</t>
+          <t>모순</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>현상(Phenomenon)</t>
+          <t>현상</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>본질(Nature)</t>
+          <t>본질</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>갈등(conflict)</t>
+          <t>갈등</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>가상(imaginary)</t>
+          <t>가상</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>근본(fundamental)</t>
+          <t>근본</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>기회(Chance)</t>
+          <t>기회</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>역할(role)</t>
+          <t>역할</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>회의(Suspect)</t>
+          <t>회의</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>회의(Meeting)</t>
+          <t>회의</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>공유(Share)</t>
+          <t>공유</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>공유(Public)</t>
+          <t>공유</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>구분(distinguish)</t>
+          <t>구분</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>분류(Classification)</t>
+          <t>분류</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>변명(Discern)</t>
+          <t>변명</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>결재(Decision)</t>
+          <t>결재</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>재고(Reconsideration)</t>
+          <t>재고</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>운명(destiny)</t>
+          <t>운명</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>성실(honest)</t>
+          <t>성실</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>운명(die)</t>
+          <t>운명</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>성실(Achievement)</t>
+          <t>성실</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>선출(Select)</t>
+          <t>선출</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>선출(First-out)</t>
+          <t>선출</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>규율(law)</t>
+          <t>규율</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>노쇠(Aging)</t>
+          <t>노쇠</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>추대(Push)</t>
+          <t>추대</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>부상(Emerging)</t>
+          <t>부상</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>부상(Injury)</t>
+          <t>부상</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>소원(Wish)</t>
+          <t>소원</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>소원</t>
+          <t>소원(Make a message)</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>상식</t>
+          <t>상식(common sense)</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>공리(axiom)</t>
+          <t>공리</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>주선</t>
+          <t>주선(deal with)</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>수렴(convergence)</t>
+          <t>수렴</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>미달(Unachieved)</t>
+          <t>미달</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>사유(Only)</t>
+          <t>사유</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>고독(Lonely)</t>
+          <t>고독</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>장악(master)</t>
+          <t>장악</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>관장(Control)</t>
+          <t>관장</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>난해(Difficulty)</t>
+          <t>난해</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>비명(scream)</t>
+          <t>비명</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>고민(depressed)</t>
+          <t>고민</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>고통(pain)</t>
+          <t>고통</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>육체(flesh)</t>
+          <t>육체</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>대책(Countermeasure)</t>
+          <t>대책</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>색출</t>
+          <t>색출(Go out)</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>검색(Retrieval)</t>
+          <t>검색</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>색인(index)</t>
+          <t>색인</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>인상</t>
+          <t>인상(Pulling out)</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>삭막(Somo)</t>
+          <t>삭막</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>수색(search)</t>
+          <t>수색</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>탁본(Extension)</t>
+          <t>탁본</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>거부(rejection)</t>
+          <t>거부</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>여부</t>
+          <t>여부(Or not)</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>부인(deny)</t>
+          <t>부인</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>부결(veto)</t>
+          <t>부결</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>부정(denial)</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>비색(Not)</t>
+          <t>비색</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>어색(Condolence)</t>
+          <t>어색</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>비운</t>
+          <t>비운(Be lucky)</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>불만(dissatisfied)</t>
+          <t>불만</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>부족(insufficient)</t>
+          <t>부족</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>불안(anxiety)</t>
+          <t>불안</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>부정(denial)</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>긍정(affim)</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>부정(Fraud)</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>부정(indefinite)</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>부정(Unclean)</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>부정(Unfaithful)</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>개척</t>
+          <t>개척(open up)</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>탁본(Extension)</t>
+          <t>탁본</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>변경(change)</t>
+          <t>변경</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>경임</t>
+          <t>경임(Be more appointed)</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>갱생(rehabilitation)</t>
+          <t>갱생</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>갱신, 경신(renew)</t>
+          <t>갱신, 경신</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>탑본(Extension)</t>
+          <t>탑본</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>유세(Lobby)</t>
+          <t>유세</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>유세(Seduce)</t>
+          <t>유세</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>조세(Tax)</t>
+          <t>조세</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>균열(Cracked)</t>
+          <t>균열</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>오열(whimper)</t>
+          <t>오열</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>회무</t>
+          <t>회무(Conference affairs)</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>회칙(Meeting)</t>
+          <t>회칙</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>회합(meet)</t>
+          <t>회합</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>회동</t>
+          <t>회동(Conform to)</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>사회(society)</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>국회(Parliament)</t>
+          <t>국회</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>기회(Chance)</t>
+          <t>기회</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>회담(talks)</t>
+          <t>회담</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>계기(Opportunity)</t>
+          <t>계기</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>기관(organ)</t>
+          <t>기관</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>위기(crisis)</t>
+          <t>위기</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>역할(role)</t>
+          <t>역할</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>용역(Service)</t>
+          <t>용역</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>현역</t>
+          <t>현역(Active duty)</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>징역(Prison)</t>
+          <t>징역</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>의무(obligation)</t>
+          <t>의무</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>강의(lecture)</t>
+          <t>강의</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>의원(Parliament)</t>
+          <t>의원</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>논의(Discussion)</t>
+          <t>논의</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>협의(protocol)</t>
+          <t>협의</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>토의(discussion)</t>
+          <t>토의</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>항의(protest)</t>
+          <t>항의</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>회유(Tenderness)</t>
+          <t>회유</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>회의(Suspect)</t>
+          <t>회의</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>회포(embrace)</t>
+          <t>회포</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B287"/>
+  <dimension ref="A1:B281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2620,91 +2620,91 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>現象</t>
+          <t>本質</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>현상</t>
+          <t>본질</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>本質</t>
+          <t>葛藤</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>본질</t>
+          <t>갈등</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>葛藤</t>
+          <t>假想</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>갈등</t>
+          <t>가상</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>假想</t>
+          <t>根本</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>가상</t>
+          <t>근본</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>根本</t>
+          <t>機會</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>근본</t>
+          <t>기회</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>機會</t>
+          <t>役割</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>기회</t>
+          <t>역할</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>役割</t>
+          <t>懷疑</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>역할</t>
+          <t>회의</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>懷疑</t>
+          <t>會議</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2716,19 +2716,19 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>會議</t>
+          <t>共有</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>회의</t>
+          <t>공유</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>共有</t>
+          <t>公有</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2740,127 +2740,127 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>公有</t>
+          <t>區分</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>공유</t>
+          <t>구분</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>區分</t>
+          <t>分類</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>구분</t>
+          <t>분류</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>分類</t>
+          <t>辨明</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>분류</t>
+          <t>변명</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>辨明</t>
+          <t>決裁</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>변명</t>
+          <t>결재</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>決裁</t>
+          <t>再考</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>결재</t>
+          <t>재고</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>再考</t>
+          <t>運命</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>재고</t>
+          <t>운명</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>運命</t>
+          <t>誠實</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>운명</t>
+          <t>성실</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>誠實</t>
+          <t>殞命</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>성실</t>
+          <t>운명</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>殞命</t>
+          <t>成實</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>운명</t>
+          <t>성실</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>成實</t>
+          <t>選出</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>성실</t>
+          <t>선출</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>選出</t>
+          <t>先出</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2872,55 +2872,55 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>先出</t>
+          <t>規律</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>선출</t>
+          <t>규율</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>規律</t>
+          <t>老衰</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>규율</t>
+          <t>노쇠</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>老衰</t>
+          <t>推戴</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>노쇠</t>
+          <t>추대</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>推戴</t>
+          <t>浮上</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>추대</t>
+          <t>부상</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>浮上</t>
+          <t>負傷</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -2932,439 +2932,439 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>負傷</t>
+          <t>所願</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>부상</t>
+          <t>소원</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>所願</t>
+          <t>訴願</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>소원</t>
+          <t>소원(Make a message)</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>訴願</t>
+          <t>常識</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>소원(Make a message)</t>
+          <t>상식(common sense)</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>常識</t>
+          <t>公理</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>상식(common sense)</t>
+          <t>공리</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>公理</t>
+          <t>周旋</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>공리</t>
+          <t>주선(deal with)</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>周旋</t>
+          <t>收斂</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>주선(deal with)</t>
+          <t>수렴</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>收斂</t>
+          <t>未達</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>수렴</t>
+          <t>미달</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>未達</t>
+          <t>思惟</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>미달</t>
+          <t>사유</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>思惟</t>
+          <t>孤獨</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>사유</t>
+          <t>고독</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>孤獨</t>
+          <t>掌握</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>고독</t>
+          <t>장악</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>掌握</t>
+          <t>管掌</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>장악</t>
+          <t>관장</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>管掌</t>
+          <t>難解</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>관장</t>
+          <t>난해</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>難解</t>
+          <t>悲鳴</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>난해</t>
+          <t>비명</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>悲鳴</t>
+          <t>苦悶</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>비명</t>
+          <t>고민</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>苦悶</t>
+          <t>苦痛</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>고민</t>
+          <t>고통</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>苦痛</t>
+          <t>肉體</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>고통</t>
+          <t>육체</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>肉體</t>
+          <t>對策</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>육체</t>
+          <t>대책</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>對策</t>
+          <t>索出</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>대책</t>
+          <t>색출(Go out)</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>索出</t>
+          <t>檢索</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>색출(Go out)</t>
+          <t>검색</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>檢索</t>
+          <t>索引</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>검색</t>
+          <t>색인</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>索引</t>
+          <t>引上</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>색인</t>
+          <t>인상(Pulling out)</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>引上</t>
+          <t>索莫</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>인상(Pulling out)</t>
+          <t>삭막</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>索莫</t>
+          <t>搜索</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>삭막</t>
+          <t>수색</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>搜索</t>
+          <t>拓本</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>수색</t>
+          <t>탁본</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>拓本</t>
+          <t>與否</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>탁본</t>
+          <t>여부(Or not)</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>拒否</t>
+          <t>否認</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>거부</t>
+          <t>부인</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>與否</t>
+          <t>否決</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>여부(Or not)</t>
+          <t>부결</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>否認</t>
+          <t>否定</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>부인</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>否決</t>
+          <t>否塞</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>부결</t>
+          <t>비색</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>否定</t>
+          <t>語塞</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>어색</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>否塞</t>
+          <t>否運</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>비색</t>
+          <t>비운(Be lucky)</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>語塞</t>
+          <t>不滿</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>어색</t>
+          <t>불만</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>否運</t>
+          <t>不足</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>비운(Be lucky)</t>
+          <t>부족</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>不滿</t>
+          <t>不安</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>불만</t>
+          <t>불안</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>不足</t>
+          <t>肯定</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>부족</t>
+          <t>긍정</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>不安</t>
+          <t>不正</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>불안</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>否定</t>
+          <t>不定</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -3376,19 +3376,19 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>肯定</t>
+          <t>不淨</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>不正</t>
+          <t>不貞</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -3400,480 +3400,408 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>不定</t>
+          <t>開拓</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>개척(open up)</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>不淨</t>
+          <t>變更</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>변경</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>不貞</t>
+          <t>更任</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>경임(Be more appointed)</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>開拓</t>
+          <t>更生</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>개척(open up)</t>
+          <t>갱생</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>拓本</t>
+          <t>更新</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>탁본</t>
+          <t>갱신, 경신</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>變更</t>
+          <t>搨本</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>변경</t>
+          <t>탑본</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>更任</t>
+          <t>遊說</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>경임(Be more appointed)</t>
+          <t>유세</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>更生</t>
+          <t>誘說</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>갱생</t>
+          <t>유세</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>更新</t>
+          <t>租稅</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>갱신, 경신</t>
+          <t>조세</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>搨本</t>
+          <t>龜裂</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>탑본</t>
+          <t>균열</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>遊說</t>
+          <t>嗚咽</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>유세</t>
+          <t>오열</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>誘說</t>
+          <t>會務</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>유세</t>
+          <t>회무(Conference affairs)</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>租稅</t>
+          <t>會則</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>조세</t>
+          <t>회칙</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>龜裂</t>
+          <t>會合</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>균열</t>
+          <t>회합</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>嗚咽</t>
+          <t>會同</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>오열</t>
+          <t>회동(Conform to)</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>會務</t>
+          <t>社會</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>회무(Conference affairs)</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>會則</t>
+          <t>國會</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>회칙</t>
+          <t>국회</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>會合</t>
+          <t>會談</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>회합</t>
+          <t>회담</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>會同</t>
+          <t>契機</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>회동(Conform to)</t>
+          <t>계기</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>社會</t>
+          <t>機關</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>기관</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>國會</t>
+          <t>危機</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>국회</t>
+          <t>위기</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>機會</t>
+          <t>用役</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>기회</t>
+          <t>용역</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>會談</t>
+          <t>現役</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>회담</t>
+          <t>현역</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>契機</t>
+          <t>懲役</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>계기</t>
+          <t>징역</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>機關</t>
+          <t>義務</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>기관</t>
+          <t>의무</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>危機</t>
+          <t>講義</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>위기</t>
+          <t>강의</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>役割</t>
+          <t>議員</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>역할</t>
+          <t>의원</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>用役</t>
+          <t>論議</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>용역</t>
+          <t>논의</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>現役</t>
+          <t>協議</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>현역(Active duty)</t>
+          <t>협의</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>懲役</t>
+          <t>討議</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>징역</t>
+          <t>토의</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>義務</t>
+          <t>抗議</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>의무</t>
+          <t>항의</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>講義</t>
+          <t>懷柔</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>강의</t>
+          <t>회유</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>議員</t>
+          <t>懷抱</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>의원</t>
+          <t>회포</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>論議</t>
+          <t>現役</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>논의</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>協議</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>협의</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>討議</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>토의</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>抗議</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>항의</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>懷柔</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>회유</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>懷疑</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>회의</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>懷抱</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>회포</t>
+          <t>현역(Active duty)</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B281"/>
+  <dimension ref="A1:B282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3805,6 +3805,18 @@
         </is>
       </c>
     </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>周旋</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>주선</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B282"/>
+  <dimension ref="A1:D280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,16 @@
           <t>대답</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>오답가산점</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,6 +466,14 @@
           <t>내과(Internal medicine)</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -465,7 +483,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>간호</t>
+          <t>간호(Nurse)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -477,7 +503,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>입원</t>
+          <t>입원(hospitalization)</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -489,7 +523,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>보고</t>
+          <t>보고(Report)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -501,7 +543,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>곡절</t>
+          <t>곡절(tortuous)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -513,7 +563,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>초유</t>
+          <t>초유(First)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -525,7 +583,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>서막</t>
+          <t>서막(prelude)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -537,7 +603,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>교양</t>
+          <t>교양(Cure)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -549,7 +623,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>이론</t>
+          <t>이론(theory)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -561,7 +643,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>유교</t>
+          <t>유교(Conf)</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -573,7 +663,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>학문</t>
+          <t>학문(knowledge)</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -585,7 +683,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>수용</t>
+          <t>수용(Acceptance)</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -597,7 +703,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>귀중</t>
+          <t>귀중(You)</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -609,7 +723,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>귀천</t>
+          <t>귀천(Expensive)</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -621,7 +743,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>유산</t>
+          <t>유산(heritage)</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -633,7 +763,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>유언</t>
+          <t>유언(will)</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -645,7 +783,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>유실</t>
+          <t>유실(Lose)</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -657,7 +803,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>유기</t>
+          <t>유기(Abandon)</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -669,7 +823,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>투고</t>
+          <t>투고(Posting)</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -681,7 +843,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>투수</t>
+          <t>투수(pitcher)</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -693,7 +863,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>투기</t>
+          <t>투기(Dumping)</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -705,7 +883,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>포기</t>
+          <t>포기(abandon)</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -717,7 +903,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>노선</t>
+          <t>노선(route)</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -729,7 +923,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>전선</t>
+          <t>전선(Front)</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -741,7 +943,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>시선</t>
+          <t>시선(Vision)</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -753,7 +963,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>근절</t>
+          <t>근절(eradication)</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -765,7 +983,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>간섭(put one's oar in)</t>
+          <t>간섭</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -780,6 +1006,14 @@
           <t>간여(Dry and)</t>
         </is>
       </c>
+      <c r="C29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -789,7 +1023,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>약간</t>
+          <t>약간(Slightly)</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -801,7 +1043,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>간만</t>
+          <t>간만(Full)</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -813,7 +1063,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>간척</t>
+          <t>간척(Reclamation)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -825,7 +1083,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>견습</t>
+          <t>견습(Appraise)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -837,7 +1103,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>견해</t>
+          <t>견해(opinion)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -849,7 +1123,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>견문</t>
+          <t>견문(knowledge)</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -861,7 +1143,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>알현</t>
+          <t>알현(audience)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -873,7 +1163,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>참가</t>
+          <t>참가(join)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -885,7 +1183,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>참석(Attend the seat)</t>
+          <t>참석</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -897,7 +1203,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>참견</t>
+          <t>참견(See)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -909,7 +1223,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>참여</t>
+          <t>참여(participate)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -921,7 +1243,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>경위(Latitude and latitude)</t>
+          <t>경위</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -933,7 +1263,15 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>화목</t>
+          <t>화목(harmony)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -945,7 +1283,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>화음</t>
+          <t>화음(Chord)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -957,7 +1303,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>화해</t>
+          <t>화해(reconciliation)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -969,7 +1323,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>화합</t>
+          <t>화합(Harmony)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -981,7 +1343,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>세금</t>
+          <t>세금(Tax)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -996,6 +1366,14 @@
           <t>혈세(Blood tax)</t>
         </is>
       </c>
+      <c r="C47" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1005,7 +1383,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>세무</t>
+          <t>세무(Tax)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1403,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>세력</t>
+          <t>세력(power)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1423,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>권세</t>
+          <t>권세(Power)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1443,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>경제</t>
+          <t>경제(economy)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1463,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>첩경</t>
+          <t>첩경(shortcut)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1483,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>경로</t>
+          <t>경로(Passage)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1503,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>직경</t>
+          <t>직경(diameter)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1523,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>한문</t>
+          <t>한문(Chinese)</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1104,6 +1546,14 @@
           <t>한자(Chinese character)</t>
         </is>
       </c>
+      <c r="C56" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1113,7 +1563,15 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>괴한</t>
+          <t>괴한(Blame)</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1583,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>비탄</t>
+          <t>비탄(grief)</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1603,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>기반</t>
+          <t>기반(basis)</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1623,15 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>창제</t>
+          <t>창제(Creation)</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1643,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>구현</t>
+          <t>구현(Embodiment)</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1663,15 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>유리</t>
+          <t>유리(favorable)</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1683,15 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>강도</t>
+          <t>강도(strength)</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1703,15 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>통제</t>
+          <t>통제(control)</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1723,15 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>행간(Line between lines)</t>
+          <t>행간</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1743,15 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>단서</t>
+          <t>단서(Ductive)</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1763,15 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>훼손</t>
+          <t>훼손(damage)</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1248,6 +1786,14 @@
           <t>매목(Buried tree)</t>
         </is>
       </c>
+      <c r="C68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1257,7 +1803,15 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>상감</t>
+          <t>상감(Inlaid)</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1823,15 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>보판</t>
+          <t>보판(Supplement)</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1843,15 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>현실</t>
+          <t>현실(Reality)</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1863,15 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>야박</t>
+          <t>야박(Scorpion)</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1883,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>근성</t>
+          <t>근성(guts)</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1903,15 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>채용</t>
+          <t>채용(use)</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1923,15 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>활력</t>
+          <t>활력(vitality)</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1943,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>활로</t>
+          <t>활로(Live)</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1963,15 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>부활</t>
+          <t>부활(Resurrection)</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1983,15 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>대화</t>
+          <t>대화(dialogue)</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1380,6 +2006,14 @@
           <t>동화(fairy tale)</t>
         </is>
       </c>
+      <c r="C79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1389,7 +2023,15 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>실화</t>
+          <t>실화(truth)</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1401,7 +2043,15 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>공감</t>
+          <t>공감(sympathy)</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1413,7 +2063,15 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>공공</t>
+          <t>공공(public)</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1425,7 +2083,15 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>공동</t>
+          <t>공동(common)</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1437,7 +2103,15 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>선거</t>
+          <t>선거(election)</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1449,7 +2123,15 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>선수</t>
+          <t>선수(player)</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1461,7 +2143,15 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>선택</t>
+          <t>선택(choose)</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1473,7 +2163,15 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>언약</t>
+          <t>언약(Appointment)</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1485,7 +2183,15 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>언론</t>
+          <t>언론(Remark)</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1497,7 +2203,15 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>격언</t>
+          <t>격언(motto)</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1509,7 +2223,15 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>화두</t>
+          <t>화두(Words)</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1521,7 +2243,15 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>통화</t>
+          <t>통화(Calling)</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1533,7 +2263,15 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>화제</t>
+          <t>화제(topic)</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1545,7 +2283,15 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>통화</t>
+          <t>통화(currency)</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1557,7 +2303,15 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>재화</t>
+          <t>재화(Money)</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1569,7 +2323,15 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>화폐</t>
+          <t>화폐(currency)</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1581,7 +2343,15 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>화물</t>
+          <t>화물(goods)</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1593,7 +2363,15 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>정의</t>
+          <t>정의(justice)</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1605,7 +2383,15 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>정직</t>
+          <t>정직(honest)</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1617,7 +2403,15 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>정치(politics)</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1629,7 +2423,15 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>정부</t>
+          <t>정부(government)</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1644,6 +2446,14 @@
           <t>정파(Political faction)</t>
         </is>
       </c>
+      <c r="C101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1656,6 +2466,14 @@
           <t>선정(Good politics)</t>
         </is>
       </c>
+      <c r="C102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1665,7 +2483,15 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>단정</t>
+          <t>단정(Determine)</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1677,7 +2503,15 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>안정</t>
+          <t>안정(Stability)</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1689,7 +2523,15 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>규정</t>
+          <t>규정(Regulation)</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1701,7 +2543,15 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>구조</t>
+          <t>구조(structure)</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1713,7 +2563,15 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>충분</t>
+          <t>충분(full)</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1725,7 +2583,15 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>현상</t>
+          <t>현상(Phenomenon)</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1737,7 +2603,15 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>조작</t>
+          <t>조작(Construction)</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1749,7 +2623,15 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>발각</t>
+          <t>발각(find)</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1761,7 +2643,15 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>남용</t>
+          <t>남용(Abuse)</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1773,7 +2663,15 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>사건</t>
+          <t>사건(event)</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1785,7 +2683,15 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>유감</t>
+          <t>유감(Pity)</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1800,6 +2706,14 @@
           <t>길조(good omen)</t>
         </is>
       </c>
+      <c r="C114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1809,7 +2723,15 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>흉조</t>
+          <t>흉조(Fierce)</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1821,7 +2743,15 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>망조</t>
+          <t>망조(Omen)</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1836,6 +2766,14 @@
           <t>도발(Pick up)</t>
         </is>
       </c>
+      <c r="C117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -1845,7 +2783,15 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>도전</t>
+          <t>도전(challenge)</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1857,7 +2803,15 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>도망</t>
+          <t>도망(escape)</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1869,7 +2823,15 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>도주</t>
+          <t>도주(escape)</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1881,7 +2843,15 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>도피</t>
+          <t>도피(escape)</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1893,7 +2863,15 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>회피</t>
+          <t>회피(Avoidance)</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1905,7 +2883,15 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>지지</t>
+          <t>지지(support)</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1917,7 +2903,15 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>지배</t>
+          <t>지배(Rule)</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1929,7 +2923,15 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>지급</t>
+          <t>지급(Supply)</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1941,7 +2943,15 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>급여</t>
+          <t>급여(Give)</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1953,7 +2963,15 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>침묵</t>
+          <t>침묵(silence)</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1965,7 +2983,15 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>묵인</t>
+          <t>묵인(default)</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1977,7 +3003,15 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>묵살</t>
+          <t>묵살(Kill)</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -1989,7 +3023,15 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>묵념</t>
+          <t>묵념(Silent)</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2001,7 +3043,15 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>동맹</t>
+          <t>동맹(alliance)</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2013,7 +3063,15 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>맹세</t>
+          <t>맹세(Oath)</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2025,7 +3083,15 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>맹방</t>
+          <t>맹방(Allies)</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2037,7 +3103,15 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>서약</t>
+          <t>서약(Vow)</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2049,7 +3123,15 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>서언</t>
+          <t>서언(oath)</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2064,6 +3146,14 @@
           <t>방자(Let go)</t>
         </is>
       </c>
+      <c r="C136" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2073,7 +3163,15 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>자세</t>
+          <t>자세(carefulness)</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2085,7 +3183,15 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>자태</t>
+          <t>자태(attitude)</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2097,7 +3203,15 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>간발</t>
+          <t>간발(Interim)</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2109,7 +3223,15 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>비견</t>
+          <t>비견(Shoulder)</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2121,7 +3243,15 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>침체</t>
+          <t>침체(Depression)</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2133,7 +3263,15 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>위축</t>
+          <t>위축(Atrophy)</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2145,7 +3283,15 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>차치</t>
+          <t>차치(Put)</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2160,6 +3306,14 @@
           <t>방역(epidemic prevention)</t>
         </is>
       </c>
+      <c r="C144" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2169,7 +3323,15 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>정부(Right and wrong)</t>
+          <t>정부</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2181,7 +3343,15 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>규칙</t>
+          <t>규칙(rule)</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2193,7 +3363,15 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>일정</t>
+          <t>일정(must)</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2208,6 +3386,14 @@
           <t>출급(Give out)</t>
         </is>
       </c>
+      <c r="C148" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2217,7 +3403,15 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>행위</t>
+          <t>행위(Pursuit)</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2229,7 +3423,15 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>약속</t>
+          <t>약속(promise)</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2241,7 +3443,15 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>맹약</t>
+          <t>맹약(Appointment)</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2253,7 +3463,15 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>구조</t>
+          <t>구조(Rescue)</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2265,7 +3483,15 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>일관</t>
+          <t>일관(Consistency)</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2277,7 +3503,15 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>자손</t>
+          <t>자손(Descendants)</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2289,7 +3523,15 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>광고</t>
+          <t>광고(advertise)</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2301,7 +3543,15 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>만대</t>
+          <t>만대(Bandai)</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2313,7 +3563,15 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>인류</t>
+          <t>인류(Humanity)</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2325,7 +3583,15 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>평등</t>
+          <t>평등(equality)</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2337,7 +3603,15 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>민족</t>
+          <t>민족(nationality)</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2349,7 +3623,15 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>대의</t>
+          <t>대의(Righteousness)</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2364,6 +3646,14 @@
           <t>자존(Self -existence)</t>
         </is>
       </c>
+      <c r="C161" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -2376,6 +3666,14 @@
           <t>자존(Self -esteem)</t>
         </is>
       </c>
+      <c r="C162" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -2385,7 +3683,15 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>극명</t>
+          <t>극명(Pronunciation)</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2397,7 +3703,15 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>정권(Right to right)</t>
+          <t>정권</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2409,7 +3723,15 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>정권</t>
+          <t>정권(regime)</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2421,7 +3743,15 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>영유</t>
+          <t>영유(Forever)</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2433,7 +3763,15 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>득실(Gain and loss)</t>
+          <t>득실</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2445,7 +3783,15 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>거부</t>
+          <t>거부(rejection)</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2457,7 +3803,15 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>거절</t>
+          <t>거절(rejection)</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2469,7 +3823,15 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>교정</t>
+          <t>교정(correct)</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2481,7 +3843,15 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>교정</t>
+          <t>교정(revision)</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2493,7 +3863,15 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>시각</t>
+          <t>시각(Perspective)</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2505,7 +3883,15 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>각축</t>
+          <t>각축(Compete)</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2517,7 +3903,15 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>살생</t>
+          <t>살생(Kill)</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2529,7 +3923,15 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>상쇄</t>
+          <t>상쇄(Offset)</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2541,7 +3943,15 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>쇄도</t>
+          <t>쇄도(Flood)</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2553,7 +3963,15 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>살균</t>
+          <t>살균(Sterilize)</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2565,7 +3983,15 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>응시</t>
+          <t>응시(gaze)</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2577,7 +4003,15 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>응시</t>
+          <t>응시(Hawking)</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2589,7 +4023,15 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>여과</t>
+          <t>여과(filtration)</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2601,7 +4043,15 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>여과</t>
+          <t>여과(Deciduous)</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2613,7 +4063,15 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>모순</t>
+          <t>모순(contradiction)</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2625,7 +4083,15 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>본질</t>
+          <t>본질(Nature)</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2637,7 +4103,15 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>갈등</t>
+          <t>갈등(conflict)</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2649,7 +4123,15 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>가상</t>
+          <t>가상(imaginary)</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2661,7 +4143,15 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>근본</t>
+          <t>근본(fundamental)</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2673,7 +4163,15 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>기회</t>
+          <t>기회(Chance)</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2685,7 +4183,15 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>역할</t>
+          <t>역할(role)</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2697,7 +4203,15 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>회의</t>
+          <t>회의(Suspect)</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2709,7 +4223,15 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>회의</t>
+          <t>회의(Meeting)</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2721,7 +4243,15 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>공유</t>
+          <t>공유(Share)</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2733,7 +4263,15 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>공유</t>
+          <t>공유(Public)</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2745,7 +4283,15 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>구분</t>
+          <t>구분(distinguish)</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2757,7 +4303,15 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>분류</t>
+          <t>분류(Classification)</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2769,7 +4323,15 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>변명</t>
+          <t>변명(Discern)</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2781,7 +4343,15 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>결재</t>
+          <t>결재(Decision)</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2793,7 +4363,15 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>재고</t>
+          <t>재고(Reconsideration)</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2805,7 +4383,15 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>운명</t>
+          <t>운명(destiny)</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2817,7 +4403,15 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>성실</t>
+          <t>성실(honest)</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2829,7 +4423,15 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>운명</t>
+          <t>운명(die)</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2841,7 +4443,15 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>성실</t>
+          <t>성실(Achievement)</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2853,7 +4463,15 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>선출</t>
+          <t>선출(Select)</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2865,7 +4483,15 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>선출</t>
+          <t>선출(First-out)</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2877,7 +4503,15 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>규율</t>
+          <t>규율(law)</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>3</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2889,7 +4523,15 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>노쇠</t>
+          <t>노쇠(Aging)</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2901,7 +4543,15 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>추대</t>
+          <t>추대(Push)</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2913,7 +4563,15 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>부상</t>
+          <t>부상(Emerging)</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2925,7 +4583,15 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>부상</t>
+          <t>부상(Injury)</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2937,7 +4603,15 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>소원</t>
+          <t>소원(Wish)</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2949,7 +4623,15 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>소원(Make a message)</t>
+          <t>소원</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2964,6 +4646,14 @@
           <t>상식(common sense)</t>
         </is>
       </c>
+      <c r="C211" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -2973,7 +4663,15 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>공리</t>
+          <t>공리(axiom)</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -2988,6 +4686,14 @@
           <t>주선(deal with)</t>
         </is>
       </c>
+      <c r="C213" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -2997,7 +4703,15 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>수렴</t>
+          <t>수렴(convergence)</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3009,7 +4723,15 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>미달</t>
+          <t>미달(Unachieved)</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3021,7 +4743,15 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>사유</t>
+          <t>사유(Only)</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3033,7 +4763,15 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>고독</t>
+          <t>고독(Lonely)</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3045,7 +4783,15 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>장악</t>
+          <t>장악(master)</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3057,7 +4803,15 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>관장</t>
+          <t>관장(Control)</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3069,7 +4823,15 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>난해</t>
+          <t>난해(Difficulty)</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3081,7 +4843,15 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>비명</t>
+          <t>비명(scream)</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3093,7 +4863,15 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>고민</t>
+          <t>고민(depressed)</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3105,7 +4883,15 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>고통</t>
+          <t>고통(pain)</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3117,7 +4903,15 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>육체</t>
+          <t>육체(flesh)</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3129,7 +4923,15 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>대책</t>
+          <t>대책(Countermeasure)</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3144,6 +4946,14 @@
           <t>색출(Go out)</t>
         </is>
       </c>
+      <c r="C226" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -3153,7 +4963,15 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>검색</t>
+          <t>검색(Retrieval)</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3165,7 +4983,15 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>색인</t>
+          <t>색인(index)</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3180,6 +5006,14 @@
           <t>인상(Pulling out)</t>
         </is>
       </c>
+      <c r="C229" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -3189,7 +5023,15 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>삭막</t>
+          <t>삭막(Somo)</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3201,7 +5043,15 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>수색</t>
+          <t>수색(search)</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3213,7 +5063,15 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>탁본</t>
+          <t>탁본(Extension)</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3228,6 +5086,14 @@
           <t>여부(Or not)</t>
         </is>
       </c>
+      <c r="C233" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -3237,7 +5103,15 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>부인</t>
+          <t>부인(deny)</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3249,7 +5123,15 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>부결</t>
+          <t>부결(veto)</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3261,7 +5143,15 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>부정(denial)</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3273,7 +5163,15 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>비색</t>
+          <t>비색(Not)</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3285,7 +5183,15 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>어색</t>
+          <t>어색(Condolence)</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3300,6 +5206,14 @@
           <t>비운(Be lucky)</t>
         </is>
       </c>
+      <c r="C239" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -3309,7 +5223,15 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>불만</t>
+          <t>불만(dissatisfied)</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3321,7 +5243,15 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>부족</t>
+          <t>부족(insufficient)</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3333,7 +5263,15 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>불안</t>
+          <t>불안(anxiety)</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3345,7 +5283,15 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>긍정</t>
+          <t>긍정(affim)</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3357,7 +5303,15 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>부정(Fraud)</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3369,7 +5323,15 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>부정(indefinite)</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3381,7 +5343,15 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>부정(Unclean)</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3393,7 +5363,15 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>부정</t>
+          <t>부정(Unfaithful)</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3408,6 +5386,14 @@
           <t>개척(open up)</t>
         </is>
       </c>
+      <c r="C248" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -3417,7 +5403,15 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>변경</t>
+          <t>변경(change)</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3429,7 +5423,15 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>경임(Be more appointed)</t>
+          <t>경임</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3441,7 +5443,15 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>갱생</t>
+          <t>갱생(rehabilitation)</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3453,7 +5463,15 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>갱신, 경신</t>
+          <t>갱신, 경신(renew)</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3465,7 +5483,15 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>탑본</t>
+          <t>탑본(Extension)</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3477,7 +5503,15 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>유세</t>
+          <t>유세(Lobby)</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3489,7 +5523,15 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>유세</t>
+          <t>유세(Seduce)</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3501,7 +5543,15 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>조세</t>
+          <t>조세(Tax)</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3513,7 +5563,15 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>균열</t>
+          <t>균열(Cracked)</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3525,7 +5583,15 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>오열</t>
+          <t>오열(whimper)</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3540,6 +5606,14 @@
           <t>회무(Conference affairs)</t>
         </is>
       </c>
+      <c r="C259" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -3549,7 +5623,15 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>회칙</t>
+          <t>회칙(Meeting)</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3561,7 +5643,15 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>회합</t>
+          <t>회합(meet)</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3576,6 +5666,14 @@
           <t>회동(Conform to)</t>
         </is>
       </c>
+      <c r="C262" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -3585,7 +5683,15 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>사회(society)</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3597,7 +5703,15 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>국회</t>
+          <t>국회(Parliament)</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3609,7 +5723,15 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>회담</t>
+          <t>회담(talks)</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3621,7 +5743,15 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>계기</t>
+          <t>계기(Opportunity)</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3633,7 +5763,15 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>기관</t>
+          <t>기관(organ)</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3645,7 +5783,15 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>위기</t>
+          <t>위기(crisis)</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3657,7 +5803,15 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>용역</t>
+          <t>용역(Service)</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3669,7 +5823,15 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>현역</t>
+          <t>현역(Active duty)</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3681,7 +5843,15 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>징역</t>
+          <t>징역(Prison)</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3693,7 +5863,15 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>의무</t>
+          <t>의무(obligation)</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3705,7 +5883,15 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>강의</t>
+          <t>강의(lecture)</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3717,7 +5903,15 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>의원</t>
+          <t>의원(Parliament)</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3729,7 +5923,15 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>논의</t>
+          <t>논의(Discussion)</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3741,7 +5943,15 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>협의</t>
+          <t>협의(protocol)</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3753,7 +5963,15 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>토의</t>
+          <t>토의(discussion)</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3765,7 +5983,15 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>항의</t>
+          <t>항의(protest)</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3777,7 +6003,15 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>회유</t>
+          <t>회유(Tenderness)</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
@@ -3789,31 +6023,15 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>회포</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>現役</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>현역(Active duty)</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>周旋</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>주선</t>
+          <t>회포(embrace)</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D280"/>
+  <dimension ref="A1:D327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6035,6 +6035,664 @@
         </is>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>息肩</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>식견(Shoulders)</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr"/>
+      <c r="D281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>識別</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>식별(Identify)</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr"/>
+      <c r="D282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>意圖</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>의도(intention)</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>意味</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>의미(meaning)</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>意外</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>의외(Accident)</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>意中</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>의중(Intention)</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>意志</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>의지(will)</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>意向</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>의향(intention)</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr"/>
+      <c r="D288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>自意</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>자의(Self -consciousness)</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr"/>
+      <c r="D289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>恣意</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>자의(Unreasonable)</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr"/>
+      <c r="D290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>聯作</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>연작(Work)</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr"/>
+      <c r="D291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>聯合</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>연합(Union)</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>聯關</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>연관(Associate)</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr"/>
+      <c r="D293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>關聯</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>관련(Associate)</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr"/>
+      <c r="D294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>聯盟</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>연맹(Alliance)</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr"/>
+      <c r="D295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>說明</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>설명(illustrate)</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr"/>
+      <c r="D296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>描寫</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>묘사(description)</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr"/>
+      <c r="D297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>敍事</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>서사(Narrative)</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>論證</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>논증(Argument)</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>演說</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>연설(speech)</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr"/>
+      <c r="D300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>說得</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>설득(Speak)</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr"/>
+      <c r="D301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>設置</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>설치(set up)</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr"/>
+      <c r="D302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>設令</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>설령(Order)</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr"/>
+      <c r="D303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>新設</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>신설(Newly established)</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>設定</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>설정(setting)</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>論難</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>논란</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>勿論</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>물론(Of course)</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>論爭</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>논쟁(Argument)</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>思考</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>사고(think)</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>準據</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>준거(Accurate)</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>檢討</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>검토(Review)</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr"/>
+      <c r="D311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>考慮</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>고려(consider)</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr"/>
+      <c r="D312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>提高</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>제고(improve)</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>水準</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>수준(level)</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr"/>
+      <c r="D314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>準則</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>준칙(Criterion)</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr"/>
+      <c r="D315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>死亡</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>사망(die)</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr"/>
+      <c r="D316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>滅亡</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>멸망(Destroy)</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>亡身</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>망신(Dead body)</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr"/>
+      <c r="D318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>展望</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>전망(Outlook)</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr"/>
+      <c r="D319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>希望</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>희망(hope)</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>失望</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>실망(Disappointed)</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>絶望</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>절망(disappointment)</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr"/>
+      <c r="D322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>忘却</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>망각(forget)</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>妄言</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>망언(Deliberate)</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>妄靈</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>망령(Deliberate)</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr"/>
+      <c r="D325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>妄想</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>망상(Delusion)</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr"/>
+      <c r="D326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>輕妄</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>경망(Gorgeous)</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr"/>
+      <c r="D327" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6046,8 +6046,14 @@
           <t>식견(Shoulders)</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr"/>
-      <c r="D281" t="inlineStr"/>
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -6060,8 +6066,14 @@
           <t>식별(Identify)</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr"/>
-      <c r="D282" t="inlineStr"/>
+      <c r="C282" t="n">
+        <v>1</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -6074,8 +6086,14 @@
           <t>의도(intention)</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr"/>
-      <c r="D283" t="inlineStr"/>
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -6088,8 +6106,14 @@
           <t>의미(meaning)</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr"/>
-      <c r="D284" t="inlineStr"/>
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -6102,8 +6126,14 @@
           <t>의외(Accident)</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr"/>
-      <c r="D285" t="inlineStr"/>
+      <c r="C285" t="n">
+        <v>1</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -6116,8 +6146,14 @@
           <t>의중(Intention)</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr"/>
-      <c r="D286" t="inlineStr"/>
+      <c r="C286" t="n">
+        <v>1</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -6130,8 +6166,14 @@
           <t>의지(will)</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr"/>
-      <c r="D287" t="inlineStr"/>
+      <c r="C287" t="n">
+        <v>1</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -6144,8 +6186,14 @@
           <t>의향(intention)</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr"/>
-      <c r="D288" t="inlineStr"/>
+      <c r="C288" t="n">
+        <v>1</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -6158,8 +6206,14 @@
           <t>자의(Self -consciousness)</t>
         </is>
       </c>
-      <c r="C289" t="inlineStr"/>
-      <c r="D289" t="inlineStr"/>
+      <c r="C289" t="n">
+        <v>1</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -6172,8 +6226,14 @@
           <t>자의(Unreasonable)</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr"/>
-      <c r="D290" t="inlineStr"/>
+      <c r="C290" t="n">
+        <v>1</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -6186,8 +6246,14 @@
           <t>연작(Work)</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr"/>
-      <c r="D291" t="inlineStr"/>
+      <c r="C291" t="n">
+        <v>1</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -6200,8 +6266,14 @@
           <t>연합(Union)</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr"/>
-      <c r="D292" t="inlineStr"/>
+      <c r="C292" t="n">
+        <v>1</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -6214,8 +6286,14 @@
           <t>연관(Associate)</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr"/>
-      <c r="D293" t="inlineStr"/>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -6228,8 +6306,14 @@
           <t>관련(Associate)</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr"/>
-      <c r="D294" t="inlineStr"/>
+      <c r="C294" t="n">
+        <v>1</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -6242,8 +6326,14 @@
           <t>연맹(Alliance)</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr"/>
-      <c r="D295" t="inlineStr"/>
+      <c r="C295" t="n">
+        <v>1</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -6256,8 +6346,14 @@
           <t>설명(illustrate)</t>
         </is>
       </c>
-      <c r="C296" t="inlineStr"/>
-      <c r="D296" t="inlineStr"/>
+      <c r="C296" t="n">
+        <v>1</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -6270,8 +6366,14 @@
           <t>묘사(description)</t>
         </is>
       </c>
-      <c r="C297" t="inlineStr"/>
-      <c r="D297" t="inlineStr"/>
+      <c r="C297" t="n">
+        <v>1</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -6284,8 +6386,14 @@
           <t>서사(Narrative)</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr"/>
-      <c r="D298" t="inlineStr"/>
+      <c r="C298" t="n">
+        <v>1</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -6298,8 +6406,14 @@
           <t>논증(Argument)</t>
         </is>
       </c>
-      <c r="C299" t="inlineStr"/>
-      <c r="D299" t="inlineStr"/>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -6312,8 +6426,14 @@
           <t>연설(speech)</t>
         </is>
       </c>
-      <c r="C300" t="inlineStr"/>
-      <c r="D300" t="inlineStr"/>
+      <c r="C300" t="n">
+        <v>1</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -6326,8 +6446,14 @@
           <t>설득(Speak)</t>
         </is>
       </c>
-      <c r="C301" t="inlineStr"/>
-      <c r="D301" t="inlineStr"/>
+      <c r="C301" t="n">
+        <v>1</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -6340,8 +6466,14 @@
           <t>설치(set up)</t>
         </is>
       </c>
-      <c r="C302" t="inlineStr"/>
-      <c r="D302" t="inlineStr"/>
+      <c r="C302" t="n">
+        <v>1</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -6354,8 +6486,14 @@
           <t>설령(Order)</t>
         </is>
       </c>
-      <c r="C303" t="inlineStr"/>
-      <c r="D303" t="inlineStr"/>
+      <c r="C303" t="n">
+        <v>1</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -6368,8 +6506,14 @@
           <t>신설(Newly established)</t>
         </is>
       </c>
-      <c r="C304" t="inlineStr"/>
-      <c r="D304" t="inlineStr"/>
+      <c r="C304" t="n">
+        <v>1</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -6382,8 +6526,14 @@
           <t>설정(setting)</t>
         </is>
       </c>
-      <c r="C305" t="inlineStr"/>
-      <c r="D305" t="inlineStr"/>
+      <c r="C305" t="n">
+        <v>1</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -6396,8 +6546,14 @@
           <t>논란</t>
         </is>
       </c>
-      <c r="C306" t="inlineStr"/>
-      <c r="D306" t="inlineStr"/>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -6410,8 +6566,14 @@
           <t>물론(Of course)</t>
         </is>
       </c>
-      <c r="C307" t="inlineStr"/>
-      <c r="D307" t="inlineStr"/>
+      <c r="C307" t="n">
+        <v>1</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -6424,8 +6586,14 @@
           <t>논쟁(Argument)</t>
         </is>
       </c>
-      <c r="C308" t="inlineStr"/>
-      <c r="D308" t="inlineStr"/>
+      <c r="C308" t="n">
+        <v>1</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -6438,8 +6606,14 @@
           <t>사고(think)</t>
         </is>
       </c>
-      <c r="C309" t="inlineStr"/>
-      <c r="D309" t="inlineStr"/>
+      <c r="C309" t="n">
+        <v>1</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -6452,8 +6626,14 @@
           <t>준거(Accurate)</t>
         </is>
       </c>
-      <c r="C310" t="inlineStr"/>
-      <c r="D310" t="inlineStr"/>
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -6466,8 +6646,14 @@
           <t>검토(Review)</t>
         </is>
       </c>
-      <c r="C311" t="inlineStr"/>
-      <c r="D311" t="inlineStr"/>
+      <c r="C311" t="n">
+        <v>1</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -6480,8 +6666,14 @@
           <t>고려(consider)</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr"/>
-      <c r="D312" t="inlineStr"/>
+      <c r="C312" t="n">
+        <v>1</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -6494,8 +6686,14 @@
           <t>제고(improve)</t>
         </is>
       </c>
-      <c r="C313" t="inlineStr"/>
-      <c r="D313" t="inlineStr"/>
+      <c r="C313" t="n">
+        <v>1</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -6508,8 +6706,14 @@
           <t>수준(level)</t>
         </is>
       </c>
-      <c r="C314" t="inlineStr"/>
-      <c r="D314" t="inlineStr"/>
+      <c r="C314" t="n">
+        <v>1</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -6522,8 +6726,14 @@
           <t>준칙(Criterion)</t>
         </is>
       </c>
-      <c r="C315" t="inlineStr"/>
-      <c r="D315" t="inlineStr"/>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -6536,8 +6746,14 @@
           <t>사망(die)</t>
         </is>
       </c>
-      <c r="C316" t="inlineStr"/>
-      <c r="D316" t="inlineStr"/>
+      <c r="C316" t="n">
+        <v>1</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -6550,8 +6766,14 @@
           <t>멸망(Destroy)</t>
         </is>
       </c>
-      <c r="C317" t="inlineStr"/>
-      <c r="D317" t="inlineStr"/>
+      <c r="C317" t="n">
+        <v>1</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -6564,8 +6786,14 @@
           <t>망신(Dead body)</t>
         </is>
       </c>
-      <c r="C318" t="inlineStr"/>
-      <c r="D318" t="inlineStr"/>
+      <c r="C318" t="n">
+        <v>1</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -6578,8 +6806,14 @@
           <t>전망(Outlook)</t>
         </is>
       </c>
-      <c r="C319" t="inlineStr"/>
-      <c r="D319" t="inlineStr"/>
+      <c r="C319" t="n">
+        <v>1</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -6592,8 +6826,14 @@
           <t>희망(hope)</t>
         </is>
       </c>
-      <c r="C320" t="inlineStr"/>
-      <c r="D320" t="inlineStr"/>
+      <c r="C320" t="n">
+        <v>1</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -6606,8 +6846,14 @@
           <t>실망(Disappointed)</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr"/>
-      <c r="D321" t="inlineStr"/>
+      <c r="C321" t="n">
+        <v>1</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -6620,8 +6866,14 @@
           <t>절망(disappointment)</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr"/>
-      <c r="D322" t="inlineStr"/>
+      <c r="C322" t="n">
+        <v>1</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -6634,8 +6886,14 @@
           <t>망각(forget)</t>
         </is>
       </c>
-      <c r="C323" t="inlineStr"/>
-      <c r="D323" t="inlineStr"/>
+      <c r="C323" t="n">
+        <v>1</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -6648,8 +6906,14 @@
           <t>망언(Deliberate)</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr"/>
-      <c r="D324" t="inlineStr"/>
+      <c r="C324" t="n">
+        <v>1</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -6662,8 +6926,14 @@
           <t>망령(Deliberate)</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr"/>
-      <c r="D325" t="inlineStr"/>
+      <c r="C325" t="n">
+        <v>1</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -6676,8 +6946,14 @@
           <t>망상(Delusion)</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr"/>
-      <c r="D326" t="inlineStr"/>
+      <c r="C326" t="n">
+        <v>1</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -6690,8 +6966,14 @@
           <t>경망(Gorgeous)</t>
         </is>
       </c>
-      <c r="C327" t="inlineStr"/>
-      <c r="D327" t="inlineStr"/>
+      <c r="C327" t="n">
+        <v>1</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>

--- a/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>

--- a/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>

--- a/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D327"/>
+  <dimension ref="A1:D389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4127,7 +4127,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6970,6 +6970,1246 @@
         <v>0</v>
       </c>
       <c r="D327" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>復活</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>부활(Revival)</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>4</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>運命</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>운명(Fate)</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>2</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>設定</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>설정(Configuration)</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>2</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>失望</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>실망(disappointment)</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>毒舌</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>독설(vicious)</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>舌戰</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>설전(Tongue warfare)</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>詭辯</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>궤변(sophistry)</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>言辯</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>언변(Argue)</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>抗辯</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>항변(Defense)</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>辯論</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>변론(debate)</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>統治</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>통치(rule)</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>陶冶</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>도야(mold)</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>汨沒</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>골몰(No)</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>沒頭</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>몰두(No)</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>5</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>沒落</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>몰락(decline)</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>3</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>陽地</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>양지(Yang)</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>陰地</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>음지</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>陽刻</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>양각(Yang)</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>陰刻</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>음각(Carving)</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>止揚</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>지양(Stopping)</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>揭揚</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>게양(Show up)</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>3</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>揭示</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>게시(reveal)</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>5</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>場所</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>장소(place)</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>廣場</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>광장(square)</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>3</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>禁忌</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>금기(Taboo)</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>2</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>猜忌</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>시기(Jealous)</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>5</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>記錄</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>기록(Record)</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>5</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>書記</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>서기(secretary)</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>記念</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>기념(anniversary)</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>紀念</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>기념(commemorate)</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>改善</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>개선(improve)</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>改良</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>개량(Improvement)</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>5</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>頭巾</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>두건(scarf)</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>4</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>市場</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>시장(market)</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>姉妹</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>자매(Sisters)</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>2</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>肺病</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>폐병(pulmonary disease)</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>2</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>肺炎</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>폐렴(pneumonia)</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>3</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>帶同</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>대동</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>1</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>腰帶</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>요대(belt)</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>滯症</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>체증(Stagnation)</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>6</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>眼前</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>曙光</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>서광(Dawn)</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>1</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>催促</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>최촉(Urge)</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>閉蟄</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>폐칩(Close)</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>1</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>振舒</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>진서(Zhen Shu)</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>2</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>復運</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>복운(Recurrence)</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>5</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>躊躇</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>주저(hesitation)</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>4</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>忌憚</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>기탄(fear)</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>3</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>展開</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>전개(Development)</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>威力</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>위력(power)</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>4</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>時代</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>시대(era)</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>過去</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>과거(past)</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>現在</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>현재(Now)</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>未來</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>미래(future)</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>精神</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>정신(Spirit)</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>4</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>投射</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>투사(projection)</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>4</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>呼吸</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>호흡(breathe)</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>5</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>乘客</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>승객(passenger)</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>2</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>變潮</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>변조(Tide)</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>5</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>吾等</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>오등(Wait)</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>1</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>固有</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>고유(Clinical)</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>自由</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>자유(free)</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0</v>
+      </c>
+      <c r="D389" t="inlineStr">
         <is>
           <t>기본</t>
         </is>

--- a/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4127,7 +4127,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D389"/>
+  <dimension ref="A1:D470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8215,6 +8215,1140 @@
         </is>
       </c>
     </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>確固</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>확고(Firm)</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr"/>
+      <c r="D390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>消滅</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>소멸(wipe out)</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr"/>
+      <c r="D391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>困惑</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>곤혹(Puzzled)</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr"/>
+      <c r="D392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>健實</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>건실(Strong)</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr"/>
+      <c r="D393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>確實</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>확실(really)</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr"/>
+      <c r="D394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>消去</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>소거(erase)</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr"/>
+      <c r="D395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>消失</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>소실(disappear)</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr"/>
+      <c r="D396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>燒失</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>소실(Burn)</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr"/>
+      <c r="D397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>消盡</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>소진(Disappear)</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr"/>
+      <c r="D398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>困辱</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>곤욕(Disgrace)</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr"/>
+      <c r="D399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>昏困</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>혼곤(Faint)</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr"/>
+      <c r="D400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>混亂</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>혼란(confusion)</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr"/>
+      <c r="D401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>看做</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>간주(Look at)</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr"/>
+      <c r="D402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>披瀝</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>피력(Show off)</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr"/>
+      <c r="D403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>介入</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>개입(intervention)</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr"/>
+      <c r="D404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>所持</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>소지(Possession)</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr"/>
+      <c r="D405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>凌駕</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>능가(Overwhelm)</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr"/>
+      <c r="D406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>背馳</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>배치(Rejuvenate)</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr"/>
+      <c r="D407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>適合</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>적합(Suitable for)</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr"/>
+      <c r="D408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>保重</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>보중</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr"/>
+      <c r="D409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>停滯</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>정체(Stagnation)</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr"/>
+      <c r="D410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>正體</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>정체(Block letter)</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr"/>
+      <c r="D411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>鳥瞰</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>조감</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr"/>
+      <c r="D412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>物望</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>물망(Look at)</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr"/>
+      <c r="D413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>推薦</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>추천(recommend)</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr"/>
+      <c r="D414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>落點</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>낙점(Falling point)</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr"/>
+      <c r="D415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>立夏</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>입하</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr"/>
+      <c r="D416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>小滿</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>소만(Full)</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr"/>
+      <c r="D417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>芒種</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>망종(Pimple)</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr"/>
+      <c r="D418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>夏至</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>하지(Summer solstice)</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr"/>
+      <c r="D419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>反映</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>반영(reflect)</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr"/>
+      <c r="D420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>省察</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>성찰(Provincial inspection)</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>究明</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>구명(Investigation)</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>獲得</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>획득(get)</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr"/>
+      <c r="D423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>異動</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>이동(Transfer)</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr"/>
+      <c r="D424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>移動</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>이동(move)</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr"/>
+      <c r="D425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>揭載</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>게재(Reveal)</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr"/>
+      <c r="D426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>樹立</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>수립(Establish)</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr"/>
+      <c r="D427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>勇退</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>용퇴(bowing out)|후진에게 길을 열어 주기 위해 스스로 관직 따위에서 물러남</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr"/>
+      <c r="D428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>勃發</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>발발(thrive)</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>建立</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>건립(Establish)</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr"/>
+      <c r="D430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>仕退</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>사퇴(Retire)</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr"/>
+      <c r="D431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>起床</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>기상(get up)</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr"/>
+      <c r="D432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>定立</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>정립(Determine)</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr"/>
+      <c r="D433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>辭任</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>사임(Resign)</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr"/>
+      <c r="D434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>生成</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>생성(generate)</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>設立</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>설립(set up)</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr"/>
+      <c r="D436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>退任</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>퇴임(Retirement)</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr"/>
+      <c r="D437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>訥辯</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>눌변(Argue)|더듬거리는 말솜씨</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>達辯</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>달변(Argue)|능숙하여 막힘이 없는 말솜씨</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>嚆矢</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>효시(First)</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr"/>
+      <c r="D440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>濫觴</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>남상(Settle)|사물의 처음이나 기원</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>一毫</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>일호|극히 작은 정도</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>秋毫</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>추호(Beyond)|매우 적거나 조금인 것</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr"/>
+      <c r="D443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>乾坤</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>건곤(Unbroken)|하늘과 땅</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr"/>
+      <c r="D444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>押釘</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>압정(Nail)</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr"/>
+      <c r="D445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>壓迫</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>압박(oppression)</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr"/>
+      <c r="D446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>壓勝</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>압승(Overwhelm)</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr"/>
+      <c r="D447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>壓縮</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>압축(compression)</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr"/>
+      <c r="D448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>記號</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>기호(mark)|부호, 문자, 표지</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr"/>
+      <c r="D449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>嗜好</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>기호(preference)|즐기고 좋아함</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr"/>
+      <c r="D450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>匿名</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>익명(Anonymous)</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr"/>
+      <c r="D451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>販賣</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>판매(Sell)</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr"/>
+      <c r="D452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>慇懃</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>은근(Courtesy)</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr"/>
+      <c r="D453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>惟獨</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>유독(Only)</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr"/>
+      <c r="D454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>寂寂</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>적적(Silence)</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr"/>
+      <c r="D455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>凜凜</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>늠름(凜凜)</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr"/>
+      <c r="D456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>受賞</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>수상(Awarded)|상을 받음</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr"/>
+      <c r="D457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>手相</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>수상(Palm)|손금이나 손의 모양</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr"/>
+      <c r="D458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>隨想</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>수상(Imagine)|그때 그때 떠오르는 느낌이나 생각</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr"/>
+      <c r="D459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>匡正</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>광정(Righteousness)|잘못된 것이나 부정따위를 바로잡음</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr"/>
+      <c r="D460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>廓正</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>확정(Positive)|잘못을 바로잡음</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr"/>
+      <c r="D461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>中傷</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>중상(Slander)|근거 없는 말로 남을 헐뜯어 명예나 지위를 손상시킴</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr"/>
+      <c r="D462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>誹謗</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>비방(defamation)|남을 비웃고 헐뜯어서 말함</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr"/>
+      <c r="D463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>軋轢</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>알력(Friction)|의견이 달라 충돌함</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr"/>
+      <c r="D464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>慨歎</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>개탄(Deeply)|분하고 안타깝게 여기어 탄식하다</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr"/>
+      <c r="D465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>感歎</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>감탄(sigh)|마음속 깊이 느끼어 탄복하다</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr"/>
+      <c r="D466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>憤怒</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>분노(anger)|분해 성내다</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr"/>
+      <c r="D467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>敬歎</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>경탄(Daunting)|우러르며 감탄하다</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr"/>
+      <c r="D468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>流失</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>유실(Lose)|떠내려가서 없어지거나 잃음</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr"/>
+      <c r="D469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>毁損</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>훼손(damage)|체면이나 명예를 손상함 또는 헐거나 깨뜨려 못쓰게 만듦</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr"/>
+      <c r="D470" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -8226,8 +8226,14 @@
           <t>확고(Firm)</t>
         </is>
       </c>
-      <c r="C390" t="inlineStr"/>
-      <c r="D390" t="inlineStr"/>
+      <c r="C390" t="n">
+        <v>1</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -8240,8 +8246,14 @@
           <t>소멸(wipe out)</t>
         </is>
       </c>
-      <c r="C391" t="inlineStr"/>
-      <c r="D391" t="inlineStr"/>
+      <c r="C391" t="n">
+        <v>1</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -8254,8 +8266,14 @@
           <t>곤혹(Puzzled)</t>
         </is>
       </c>
-      <c r="C392" t="inlineStr"/>
-      <c r="D392" t="inlineStr"/>
+      <c r="C392" t="n">
+        <v>3</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -8268,8 +8286,14 @@
           <t>건실(Strong)</t>
         </is>
       </c>
-      <c r="C393" t="inlineStr"/>
-      <c r="D393" t="inlineStr"/>
+      <c r="C393" t="n">
+        <v>0</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -8282,8 +8306,14 @@
           <t>확실(really)</t>
         </is>
       </c>
-      <c r="C394" t="inlineStr"/>
-      <c r="D394" t="inlineStr"/>
+      <c r="C394" t="n">
+        <v>3</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -8296,8 +8326,14 @@
           <t>소거(erase)</t>
         </is>
       </c>
-      <c r="C395" t="inlineStr"/>
-      <c r="D395" t="inlineStr"/>
+      <c r="C395" t="n">
+        <v>3</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -8310,8 +8346,14 @@
           <t>소실(disappear)</t>
         </is>
       </c>
-      <c r="C396" t="inlineStr"/>
-      <c r="D396" t="inlineStr"/>
+      <c r="C396" t="n">
+        <v>5</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -8324,8 +8366,14 @@
           <t>소실(Burn)</t>
         </is>
       </c>
-      <c r="C397" t="inlineStr"/>
-      <c r="D397" t="inlineStr"/>
+      <c r="C397" t="n">
+        <v>1</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -8338,8 +8386,14 @@
           <t>소진(Disappear)</t>
         </is>
       </c>
-      <c r="C398" t="inlineStr"/>
-      <c r="D398" t="inlineStr"/>
+      <c r="C398" t="n">
+        <v>2</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -8352,8 +8406,14 @@
           <t>곤욕(Disgrace)</t>
         </is>
       </c>
-      <c r="C399" t="inlineStr"/>
-      <c r="D399" t="inlineStr"/>
+      <c r="C399" t="n">
+        <v>3</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -8366,8 +8426,14 @@
           <t>혼곤(Faint)</t>
         </is>
       </c>
-      <c r="C400" t="inlineStr"/>
-      <c r="D400" t="inlineStr"/>
+      <c r="C400" t="n">
+        <v>3</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -8380,8 +8446,14 @@
           <t>혼란(confusion)</t>
         </is>
       </c>
-      <c r="C401" t="inlineStr"/>
-      <c r="D401" t="inlineStr"/>
+      <c r="C401" t="n">
+        <v>2</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -8394,8 +8466,14 @@
           <t>간주(Look at)</t>
         </is>
       </c>
-      <c r="C402" t="inlineStr"/>
-      <c r="D402" t="inlineStr"/>
+      <c r="C402" t="n">
+        <v>5</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -8408,8 +8486,14 @@
           <t>피력(Show off)</t>
         </is>
       </c>
-      <c r="C403" t="inlineStr"/>
-      <c r="D403" t="inlineStr"/>
+      <c r="C403" t="n">
+        <v>1</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -8422,8 +8506,14 @@
           <t>개입(intervention)</t>
         </is>
       </c>
-      <c r="C404" t="inlineStr"/>
-      <c r="D404" t="inlineStr"/>
+      <c r="C404" t="n">
+        <v>0</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -8436,8 +8526,14 @@
           <t>소지(Possession)</t>
         </is>
       </c>
-      <c r="C405" t="inlineStr"/>
-      <c r="D405" t="inlineStr"/>
+      <c r="C405" t="n">
+        <v>4</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -8450,8 +8546,14 @@
           <t>능가(Overwhelm)</t>
         </is>
       </c>
-      <c r="C406" t="inlineStr"/>
-      <c r="D406" t="inlineStr"/>
+      <c r="C406" t="n">
+        <v>4</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -8464,8 +8566,14 @@
           <t>배치(Rejuvenate)</t>
         </is>
       </c>
-      <c r="C407" t="inlineStr"/>
-      <c r="D407" t="inlineStr"/>
+      <c r="C407" t="n">
+        <v>3</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -8478,8 +8586,14 @@
           <t>적합(Suitable for)</t>
         </is>
       </c>
-      <c r="C408" t="inlineStr"/>
-      <c r="D408" t="inlineStr"/>
+      <c r="C408" t="n">
+        <v>3</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -8492,8 +8606,14 @@
           <t>보중</t>
         </is>
       </c>
-      <c r="C409" t="inlineStr"/>
-      <c r="D409" t="inlineStr"/>
+      <c r="C409" t="n">
+        <v>3</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -8506,8 +8626,14 @@
           <t>정체(Stagnation)</t>
         </is>
       </c>
-      <c r="C410" t="inlineStr"/>
-      <c r="D410" t="inlineStr"/>
+      <c r="C410" t="n">
+        <v>2</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -8520,8 +8646,14 @@
           <t>정체(Block letter)</t>
         </is>
       </c>
-      <c r="C411" t="inlineStr"/>
-      <c r="D411" t="inlineStr"/>
+      <c r="C411" t="n">
+        <v>0</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -8534,8 +8666,14 @@
           <t>조감</t>
         </is>
       </c>
-      <c r="C412" t="inlineStr"/>
-      <c r="D412" t="inlineStr"/>
+      <c r="C412" t="n">
+        <v>3</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -8548,8 +8686,14 @@
           <t>물망(Look at)</t>
         </is>
       </c>
-      <c r="C413" t="inlineStr"/>
-      <c r="D413" t="inlineStr"/>
+      <c r="C413" t="n">
+        <v>1</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -8562,8 +8706,14 @@
           <t>추천(recommend)</t>
         </is>
       </c>
-      <c r="C414" t="inlineStr"/>
-      <c r="D414" t="inlineStr"/>
+      <c r="C414" t="n">
+        <v>3</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -8576,8 +8726,14 @@
           <t>낙점(Falling point)</t>
         </is>
       </c>
-      <c r="C415" t="inlineStr"/>
-      <c r="D415" t="inlineStr"/>
+      <c r="C415" t="n">
+        <v>4</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -8590,8 +8746,14 @@
           <t>입하</t>
         </is>
       </c>
-      <c r="C416" t="inlineStr"/>
-      <c r="D416" t="inlineStr"/>
+      <c r="C416" t="n">
+        <v>2</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -8604,8 +8766,14 @@
           <t>소만(Full)</t>
         </is>
       </c>
-      <c r="C417" t="inlineStr"/>
-      <c r="D417" t="inlineStr"/>
+      <c r="C417" t="n">
+        <v>0</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -8618,8 +8786,14 @@
           <t>망종(Pimple)</t>
         </is>
       </c>
-      <c r="C418" t="inlineStr"/>
-      <c r="D418" t="inlineStr"/>
+      <c r="C418" t="n">
+        <v>3</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -8632,8 +8806,14 @@
           <t>하지(Summer solstice)</t>
         </is>
       </c>
-      <c r="C419" t="inlineStr"/>
-      <c r="D419" t="inlineStr"/>
+      <c r="C419" t="n">
+        <v>1</v>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -8646,8 +8826,14 @@
           <t>반영(reflect)</t>
         </is>
       </c>
-      <c r="C420" t="inlineStr"/>
-      <c r="D420" t="inlineStr"/>
+      <c r="C420" t="n">
+        <v>3</v>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -8660,8 +8846,14 @@
           <t>성찰(Provincial inspection)</t>
         </is>
       </c>
-      <c r="C421" t="inlineStr"/>
-      <c r="D421" t="inlineStr"/>
+      <c r="C421" t="n">
+        <v>1</v>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -8674,8 +8866,14 @@
           <t>구명(Investigation)</t>
         </is>
       </c>
-      <c r="C422" t="inlineStr"/>
-      <c r="D422" t="inlineStr"/>
+      <c r="C422" t="n">
+        <v>0</v>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -8688,8 +8886,14 @@
           <t>획득(get)</t>
         </is>
       </c>
-      <c r="C423" t="inlineStr"/>
-      <c r="D423" t="inlineStr"/>
+      <c r="C423" t="n">
+        <v>3</v>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -8702,8 +8906,14 @@
           <t>이동(Transfer)</t>
         </is>
       </c>
-      <c r="C424" t="inlineStr"/>
-      <c r="D424" t="inlineStr"/>
+      <c r="C424" t="n">
+        <v>1</v>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -8716,8 +8926,14 @@
           <t>이동(move)</t>
         </is>
       </c>
-      <c r="C425" t="inlineStr"/>
-      <c r="D425" t="inlineStr"/>
+      <c r="C425" t="n">
+        <v>2</v>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -8730,8 +8946,14 @@
           <t>게재(Reveal)</t>
         </is>
       </c>
-      <c r="C426" t="inlineStr"/>
-      <c r="D426" t="inlineStr"/>
+      <c r="C426" t="n">
+        <v>3</v>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -8744,8 +8966,14 @@
           <t>수립(Establish)</t>
         </is>
       </c>
-      <c r="C427" t="inlineStr"/>
-      <c r="D427" t="inlineStr"/>
+      <c r="C427" t="n">
+        <v>3</v>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -8758,8 +8986,14 @@
           <t>용퇴(bowing out)|후진에게 길을 열어 주기 위해 스스로 관직 따위에서 물러남</t>
         </is>
       </c>
-      <c r="C428" t="inlineStr"/>
-      <c r="D428" t="inlineStr"/>
+      <c r="C428" t="n">
+        <v>5</v>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -8772,8 +9006,14 @@
           <t>발발(thrive)</t>
         </is>
       </c>
-      <c r="C429" t="inlineStr"/>
-      <c r="D429" t="inlineStr"/>
+      <c r="C429" t="n">
+        <v>0</v>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -8786,8 +9026,14 @@
           <t>건립(Establish)</t>
         </is>
       </c>
-      <c r="C430" t="inlineStr"/>
-      <c r="D430" t="inlineStr"/>
+      <c r="C430" t="n">
+        <v>0</v>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -8800,8 +9046,14 @@
           <t>사퇴(Retire)</t>
         </is>
       </c>
-      <c r="C431" t="inlineStr"/>
-      <c r="D431" t="inlineStr"/>
+      <c r="C431" t="n">
+        <v>5</v>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -8814,8 +9066,14 @@
           <t>기상(get up)</t>
         </is>
       </c>
-      <c r="C432" t="inlineStr"/>
-      <c r="D432" t="inlineStr"/>
+      <c r="C432" t="n">
+        <v>3</v>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -8828,8 +9086,14 @@
           <t>정립(Determine)</t>
         </is>
       </c>
-      <c r="C433" t="inlineStr"/>
-      <c r="D433" t="inlineStr"/>
+      <c r="C433" t="n">
+        <v>0</v>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -8842,8 +9106,14 @@
           <t>사임(Resign)</t>
         </is>
       </c>
-      <c r="C434" t="inlineStr"/>
-      <c r="D434" t="inlineStr"/>
+      <c r="C434" t="n">
+        <v>2</v>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -8856,8 +9126,14 @@
           <t>생성(generate)</t>
         </is>
       </c>
-      <c r="C435" t="inlineStr"/>
-      <c r="D435" t="inlineStr"/>
+      <c r="C435" t="n">
+        <v>0</v>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -8870,8 +9146,14 @@
           <t>설립(set up)</t>
         </is>
       </c>
-      <c r="C436" t="inlineStr"/>
-      <c r="D436" t="inlineStr"/>
+      <c r="C436" t="n">
+        <v>3</v>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -8884,8 +9166,14 @@
           <t>퇴임(Retirement)</t>
         </is>
       </c>
-      <c r="C437" t="inlineStr"/>
-      <c r="D437" t="inlineStr"/>
+      <c r="C437" t="n">
+        <v>3</v>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -8898,8 +9186,14 @@
           <t>눌변(Argue)|더듬거리는 말솜씨</t>
         </is>
       </c>
-      <c r="C438" t="inlineStr"/>
-      <c r="D438" t="inlineStr"/>
+      <c r="C438" t="n">
+        <v>2</v>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -8912,8 +9206,14 @@
           <t>달변(Argue)|능숙하여 막힘이 없는 말솜씨</t>
         </is>
       </c>
-      <c r="C439" t="inlineStr"/>
-      <c r="D439" t="inlineStr"/>
+      <c r="C439" t="n">
+        <v>2</v>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -8926,8 +9226,14 @@
           <t>효시(First)</t>
         </is>
       </c>
-      <c r="C440" t="inlineStr"/>
-      <c r="D440" t="inlineStr"/>
+      <c r="C440" t="n">
+        <v>0</v>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -8940,8 +9246,14 @@
           <t>남상(Settle)|사물의 처음이나 기원</t>
         </is>
       </c>
-      <c r="C441" t="inlineStr"/>
-      <c r="D441" t="inlineStr"/>
+      <c r="C441" t="n">
+        <v>2</v>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -8954,8 +9266,14 @@
           <t>일호|극히 작은 정도</t>
         </is>
       </c>
-      <c r="C442" t="inlineStr"/>
-      <c r="D442" t="inlineStr"/>
+      <c r="C442" t="n">
+        <v>1</v>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -8968,8 +9286,14 @@
           <t>추호(Beyond)|매우 적거나 조금인 것</t>
         </is>
       </c>
-      <c r="C443" t="inlineStr"/>
-      <c r="D443" t="inlineStr"/>
+      <c r="C443" t="n">
+        <v>4</v>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -8982,8 +9306,14 @@
           <t>건곤(Unbroken)|하늘과 땅</t>
         </is>
       </c>
-      <c r="C444" t="inlineStr"/>
-      <c r="D444" t="inlineStr"/>
+      <c r="C444" t="n">
+        <v>2</v>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -8996,8 +9326,14 @@
           <t>압정(Nail)</t>
         </is>
       </c>
-      <c r="C445" t="inlineStr"/>
-      <c r="D445" t="inlineStr"/>
+      <c r="C445" t="n">
+        <v>1</v>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -9010,8 +9346,14 @@
           <t>압박(oppression)</t>
         </is>
       </c>
-      <c r="C446" t="inlineStr"/>
-      <c r="D446" t="inlineStr"/>
+      <c r="C446" t="n">
+        <v>2</v>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -9024,8 +9366,14 @@
           <t>압승(Overwhelm)</t>
         </is>
       </c>
-      <c r="C447" t="inlineStr"/>
-      <c r="D447" t="inlineStr"/>
+      <c r="C447" t="n">
+        <v>2</v>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -9038,8 +9386,14 @@
           <t>압축(compression)</t>
         </is>
       </c>
-      <c r="C448" t="inlineStr"/>
-      <c r="D448" t="inlineStr"/>
+      <c r="C448" t="n">
+        <v>3</v>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -9052,8 +9406,14 @@
           <t>기호(mark)|부호, 문자, 표지</t>
         </is>
       </c>
-      <c r="C449" t="inlineStr"/>
-      <c r="D449" t="inlineStr"/>
+      <c r="C449" t="n">
+        <v>4</v>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -9066,8 +9426,14 @@
           <t>기호(preference)|즐기고 좋아함</t>
         </is>
       </c>
-      <c r="C450" t="inlineStr"/>
-      <c r="D450" t="inlineStr"/>
+      <c r="C450" t="n">
+        <v>3</v>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -9080,8 +9446,14 @@
           <t>익명(Anonymous)</t>
         </is>
       </c>
-      <c r="C451" t="inlineStr"/>
-      <c r="D451" t="inlineStr"/>
+      <c r="C451" t="n">
+        <v>3</v>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -9094,8 +9466,14 @@
           <t>판매(Sell)</t>
         </is>
       </c>
-      <c r="C452" t="inlineStr"/>
-      <c r="D452" t="inlineStr"/>
+      <c r="C452" t="n">
+        <v>3</v>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -9108,8 +9486,14 @@
           <t>은근(Courtesy)</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr"/>
-      <c r="D453" t="inlineStr"/>
+      <c r="C453" t="n">
+        <v>5</v>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -9122,8 +9506,14 @@
           <t>유독(Only)</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr"/>
-      <c r="D454" t="inlineStr"/>
+      <c r="C454" t="n">
+        <v>4</v>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -9136,8 +9526,14 @@
           <t>적적(Silence)</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr"/>
-      <c r="D455" t="inlineStr"/>
+      <c r="C455" t="n">
+        <v>3</v>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -9150,8 +9546,14 @@
           <t>늠름(凜凜)</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr"/>
-      <c r="D456" t="inlineStr"/>
+      <c r="C456" t="n">
+        <v>3</v>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -9164,8 +9566,14 @@
           <t>수상(Awarded)|상을 받음</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr"/>
-      <c r="D457" t="inlineStr"/>
+      <c r="C457" t="n">
+        <v>1</v>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -9178,8 +9586,14 @@
           <t>수상(Palm)|손금이나 손의 모양</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr"/>
-      <c r="D458" t="inlineStr"/>
+      <c r="C458" t="n">
+        <v>0</v>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -9192,8 +9606,14 @@
           <t>수상(Imagine)|그때 그때 떠오르는 느낌이나 생각</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr"/>
-      <c r="D459" t="inlineStr"/>
+      <c r="C459" t="n">
+        <v>3</v>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -9206,8 +9626,14 @@
           <t>광정(Righteousness)|잘못된 것이나 부정따위를 바로잡음</t>
         </is>
       </c>
-      <c r="C460" t="inlineStr"/>
-      <c r="D460" t="inlineStr"/>
+      <c r="C460" t="n">
+        <v>0</v>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -9220,8 +9646,14 @@
           <t>확정(Positive)|잘못을 바로잡음</t>
         </is>
       </c>
-      <c r="C461" t="inlineStr"/>
-      <c r="D461" t="inlineStr"/>
+      <c r="C461" t="n">
+        <v>2</v>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -9234,8 +9666,14 @@
           <t>중상(Slander)|근거 없는 말로 남을 헐뜯어 명예나 지위를 손상시킴</t>
         </is>
       </c>
-      <c r="C462" t="inlineStr"/>
-      <c r="D462" t="inlineStr"/>
+      <c r="C462" t="n">
+        <v>3</v>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -9248,8 +9686,14 @@
           <t>비방(defamation)|남을 비웃고 헐뜯어서 말함</t>
         </is>
       </c>
-      <c r="C463" t="inlineStr"/>
-      <c r="D463" t="inlineStr"/>
+      <c r="C463" t="n">
+        <v>2</v>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -9262,8 +9706,14 @@
           <t>알력(Friction)|의견이 달라 충돌함</t>
         </is>
       </c>
-      <c r="C464" t="inlineStr"/>
-      <c r="D464" t="inlineStr"/>
+      <c r="C464" t="n">
+        <v>3</v>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -9276,8 +9726,14 @@
           <t>개탄(Deeply)|분하고 안타깝게 여기어 탄식하다</t>
         </is>
       </c>
-      <c r="C465" t="inlineStr"/>
-      <c r="D465" t="inlineStr"/>
+      <c r="C465" t="n">
+        <v>3</v>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -9290,8 +9746,14 @@
           <t>감탄(sigh)|마음속 깊이 느끼어 탄복하다</t>
         </is>
       </c>
-      <c r="C466" t="inlineStr"/>
-      <c r="D466" t="inlineStr"/>
+      <c r="C466" t="n">
+        <v>1</v>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -9304,8 +9766,14 @@
           <t>분노(anger)|분해 성내다</t>
         </is>
       </c>
-      <c r="C467" t="inlineStr"/>
-      <c r="D467" t="inlineStr"/>
+      <c r="C467" t="n">
+        <v>6</v>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -9318,8 +9786,14 @@
           <t>경탄(Daunting)|우러르며 감탄하다</t>
         </is>
       </c>
-      <c r="C468" t="inlineStr"/>
-      <c r="D468" t="inlineStr"/>
+      <c r="C468" t="n">
+        <v>3</v>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -9332,8 +9806,14 @@
           <t>유실(Lose)|떠내려가서 없어지거나 잃음</t>
         </is>
       </c>
-      <c r="C469" t="inlineStr"/>
-      <c r="D469" t="inlineStr"/>
+      <c r="C469" t="n">
+        <v>3</v>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -9346,8 +9826,14 @@
           <t>훼손(damage)|체면이나 명예를 손상함 또는 헐거나 깨뜨려 못쓰게 만듦</t>
         </is>
       </c>
-      <c r="C470" t="inlineStr"/>
-      <c r="D470" t="inlineStr"/>
+      <c r="C470" t="n">
+        <v>5</v>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>

--- a/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>

--- a/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어2글자_번역.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="950">
   <si>
     <t>질문</t>
   </si>
@@ -2853,6 +2853,46 @@
       </rPr>
       <t>度</t>
     </r>
+  </si>
+  <si>
+    <t>準備</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未備</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>미비</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>子規</t>
+  </si>
+  <si>
+    <t>자규 | 소쩍새</t>
+  </si>
+  <si>
+    <t>細雨</t>
+  </si>
+  <si>
+    <t>세우 | 가랑비</t>
+  </si>
+  <si>
+    <t>陰雨</t>
+  </si>
+  <si>
+    <t>음우 | 몹시 음산하게 오는 비</t>
+  </si>
+  <si>
+    <t>錦繡</t>
+  </si>
+  <si>
+    <t>금수 | 수를 놓은 비단</t>
   </si>
 </sst>
 </file>
@@ -3247,15 +3287,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D470"/>
+  <dimension ref="A1:D476"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A465" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A473" sqref="A473:A476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="44.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -9836,6 +9878,54 @@
       </c>
       <c r="D470" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>949</v>
       </c>
     </row>
   </sheetData>
